--- a/2HL_Neurons_Network_Results_TTS_V1.xlsx
+++ b/2HL_Neurons_Network_Results_TTS_V1.xlsx
@@ -506,31 +506,31 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9766315254890177</v>
+        <v>0.9789261114388688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.970774220858318</v>
+        <v>0.9740271937552424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8111444597686926</v>
+        <v>0.8472934744947717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3720587981437359</v>
+        <v>0.3542612337567021</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4265745105379989</v>
+        <v>0.4025096551258374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4933530690808789</v>
+        <v>0.4256409930278744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2987187802791595</v>
+        <v>0.2720246613025665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3661549687385559</v>
+        <v>0.3472518622875214</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3757697641849518</v>
+        <v>0.3360794186592102</v>
       </c>
     </row>
     <row r="3">
@@ -544,31 +544,31 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9583629521525082</v>
+        <v>0.960044644291864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9664314881029656</v>
+        <v>0.9477478382237596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7712532935787855</v>
+        <v>0.7341151809513593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4965656619154344</v>
+        <v>0.4887727933578548</v>
       </c>
       <c r="H3" t="n">
-        <v>0.462287590506853</v>
+        <v>0.5720710032866876</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5785132212978502</v>
+        <v>0.584510744617734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3895982503890991</v>
+        <v>0.3827966153621674</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3283238410949707</v>
+        <v>0.4979668855667114</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4137372672557831</v>
+        <v>0.4329031407833099</v>
       </c>
     </row>
     <row r="4">
@@ -582,31 +582,31 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980137672186298</v>
+        <v>0.9682348860686165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9815842606149358</v>
+        <v>0.9706307643060663</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7732077135182875</v>
+        <v>0.4843030493041448</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3431166319182817</v>
+        <v>0.4381706172959209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3379352848769847</v>
+        <v>0.4254100476359346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5181448083457161</v>
+        <v>0.7830848509413292</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2590404450893402</v>
+        <v>0.3360793888568878</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2774813175201416</v>
+        <v>0.3106859028339386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3872153759002686</v>
+        <v>0.6427613496780396</v>
       </c>
     </row>
     <row r="5">
@@ -620,31 +620,31 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9631192799439294</v>
+        <v>0.9806529245377357</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9465459963427788</v>
+        <v>0.9907156612629856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7041821556900858</v>
+        <v>0.8330648218596699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4694861512574104</v>
+        <v>0.3400115990763918</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5782607924299042</v>
+        <v>0.2417625036137358</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6088821178467411</v>
+        <v>0.4628871000131556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3610471189022064</v>
+        <v>0.2710388004779816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4963358640670776</v>
+        <v>0.1860162764787674</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4637714624404907</v>
+        <v>0.365283876657486</v>
       </c>
     </row>
     <row r="6">
@@ -658,31 +658,31 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9789575657394685</v>
+        <v>0.977906172109636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9803222090632512</v>
+        <v>0.9834790881816106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.662889397879991</v>
+        <v>0.8302215945725192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3591334941256491</v>
+        <v>0.3626894077853655</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3486971221508331</v>
+        <v>0.3214690217515463</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6452027493084239</v>
+        <v>0.4601566521945614</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2734411954879761</v>
+        <v>0.2820152938365936</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2896718084812164</v>
+        <v>0.251557320356369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5044474005699158</v>
+        <v>0.3884378671646118</v>
       </c>
     </row>
     <row r="7">
@@ -696,31 +696,31 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9682661114095441</v>
+        <v>0.9759734042879981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9861442318487911</v>
+        <v>0.9670436887342541</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7328973726006609</v>
+        <v>0.7721768993713862</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4405834496298754</v>
+        <v>0.3785447628116463</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2968920150699399</v>
+        <v>0.456425371171084</v>
       </c>
       <c r="I7" t="n">
-        <v>0.572932509000971</v>
+        <v>0.5531172757229021</v>
       </c>
       <c r="J7" t="n">
-        <v>0.36297607421875</v>
+        <v>0.2885218858718872</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2343200296163559</v>
+        <v>0.3719923198223114</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4904809594154358</v>
+        <v>0.4287649393081665</v>
       </c>
     </row>
     <row r="8">
@@ -734,31 +734,31 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9711334151851196</v>
+        <v>0.9645559936331591</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9655112420643921</v>
+        <v>0.9406766166293508</v>
       </c>
       <c r="F8" t="n">
-        <v>0.402092099711998</v>
+        <v>0.8036814845986704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4205882263546468</v>
+        <v>0.4592601515780232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4695369948608534</v>
+        <v>0.6069561807568045</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8680933783026521</v>
+        <v>0.4896450832329656</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3309341669082642</v>
+        <v>0.3700664043426514</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4033512473106384</v>
+        <v>0.5224969983100891</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7321413159370422</v>
+        <v>0.3888565599918365</v>
       </c>
     </row>
     <row r="9">
@@ -772,31 +772,31 @@
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9851414637457455</v>
+        <v>0.9795946138694805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98888784395447</v>
+        <v>0.9843821644979803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.900239618855009</v>
+        <v>0.884744481793303</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2973498762645242</v>
+        <v>0.3485941932295816</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2651724747350972</v>
+        <v>0.3154625063614161</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3536273716455665</v>
+        <v>0.3750914819711288</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2205545753240585</v>
+        <v>0.2640952169895172</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2158106863498688</v>
+        <v>0.2651735246181488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2759880721569061</v>
+        <v>0.3047413229942322</v>
       </c>
     </row>
     <row r="10">
@@ -810,31 +810,31 @@
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9721730990767317</v>
+        <v>0.980451018836443</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9869909203325822</v>
+        <v>0.9828998062728359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8427766069583914</v>
+        <v>0.8144220143811035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.409124930639637</v>
+        <v>0.3418152504477412</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2836164549468805</v>
+        <v>0.3298817789841899</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4428465814336404</v>
+        <v>0.4921711813022813</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3419137001037598</v>
+        <v>0.2606927752494812</v>
       </c>
       <c r="K10" t="n">
-        <v>0.232373520731926</v>
+        <v>0.2613999545574188</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3780231177806854</v>
+        <v>0.3792022168636322</v>
       </c>
     </row>
     <row r="11">
@@ -848,31 +848,31 @@
         <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9840750452447361</v>
+        <v>0.9845457828791531</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9941357400758788</v>
+        <v>0.9818761791193928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8907632370819355</v>
+        <v>0.8545915842027541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3075886546632106</v>
+        <v>0.3025298627583785</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1938826964103209</v>
+        <v>0.3384956279652606</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3603135996104498</v>
+        <v>0.4258771840782133</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2324135303497314</v>
+        <v>0.2203899174928665</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1529714018106461</v>
+        <v>0.2660754919052124</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2949807643890381</v>
+        <v>0.3163793683052063</v>
       </c>
     </row>
     <row r="12">
@@ -886,31 +886,31 @@
         <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9801995072114018</v>
+        <v>0.9769904427952885</v>
       </c>
       <c r="E12" t="n">
-        <v>0.978366194613249</v>
+        <v>0.9734748855256925</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8520008113240882</v>
+        <v>0.842608434507477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3428522437815674</v>
+        <v>0.3696643404183721</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3674935424976934</v>
+        <v>0.4033244689283881</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4392094593565039</v>
+        <v>0.4263439310173149</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2639525830745697</v>
+        <v>0.2802736461162567</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2953383922576904</v>
+        <v>0.3245090544223785</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3377315998077393</v>
+        <v>0.3407011330127716</v>
       </c>
     </row>
     <row r="13">
@@ -924,31 +924,31 @@
         <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9728956772902076</v>
+        <v>0.981758493465226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9820052537680095</v>
+        <v>0.9868612100949401</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8255864705944378</v>
+        <v>0.8576986855849941</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4044074860897264</v>
+        <v>0.3295640723431309</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3345174160822568</v>
+        <v>0.2860811336575185</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4639282507608468</v>
+        <v>0.4259206386203818</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3167602717876434</v>
+        <v>0.2403082698583603</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2520175278186798</v>
+        <v>0.2340818792581558</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4015347957611084</v>
+        <v>0.3104581832885742</v>
       </c>
     </row>
     <row r="14">
@@ -962,31 +962,31 @@
         <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>0.982872288164703</v>
+        <v>0.9533226877281725</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9897897366016198</v>
+        <v>0.9664582400527282</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7634123920814817</v>
+        <v>0.79918569449976</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3188591760771308</v>
+        <v>0.528810566258296</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2555692498380877</v>
+        <v>0.4565775159524512</v>
       </c>
       <c r="I14" t="n">
-        <v>0.537789985145562</v>
+        <v>0.4962656068870037</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2428119033575058</v>
+        <v>0.4245864152908325</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2067511081695557</v>
+        <v>0.3622808158397675</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4278735816478729</v>
+        <v>0.4173428118228912</v>
       </c>
     </row>
     <row r="15">
@@ -1000,31 +1000,31 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0.969865830075193</v>
+        <v>0.9550853317878659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.953743140100173</v>
+        <v>0.8973527806017345</v>
       </c>
       <c r="F15" t="n">
-        <v>0.812289240975417</v>
+        <v>0.8332892646608357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4233515648720688</v>
+        <v>0.5154974230527062</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5355870260355985</v>
+        <v>0.7969255618341881</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4835653768175037</v>
+        <v>0.4684894950517448</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3301028311252594</v>
+        <v>0.3821829259395599</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4416338205337524</v>
+        <v>0.6937000155448914</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3867982923984528</v>
+        <v>0.3706101775169373</v>
       </c>
     </row>
     <row r="16">
@@ -1038,31 +1038,31 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9245599213419508</v>
+        <v>0.965601908137506</v>
       </c>
       <c r="E16" t="n">
-        <v>0.895379582937782</v>
+        <v>0.9576935774375788</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3278542350466156</v>
+        <v>0.678944743892364</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6761851123768013</v>
+        <v>0.4527155571911409</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8097738233373013</v>
+        <v>0.517098114264522</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8974923179212687</v>
+        <v>0.6412091499464047</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5327280163764954</v>
+        <v>0.3547224402427673</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6937878131866455</v>
+        <v>0.4365833401679993</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6774799823760986</v>
+        <v>0.4960663318634033</v>
       </c>
     </row>
     <row r="17">
@@ -1076,31 +1076,31 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9615064178342386</v>
+        <v>0.9825711326783826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9538502803699388</v>
+        <v>0.9873266664464908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7260880919007384</v>
+        <v>0.8657030942463594</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4813646012874199</v>
+        <v>0.3212776066091428</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5346559566733563</v>
+        <v>0.2827199958503118</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5957821402754436</v>
+        <v>0.3971825827017311</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3932317793369293</v>
+        <v>0.2426412105560303</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4601411819458008</v>
+        <v>0.2254441231489182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4752531945705414</v>
+        <v>0.2987044155597687</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9655134913235397</v>
+        <v>0.9690136061635123</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9474217065266846</v>
+        <v>0.9837691082967794</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8777209858240538</v>
+        <v>0.8458329549769716</v>
       </c>
       <c r="G18" t="n">
-        <v>0.453403223057983</v>
+        <v>0.4292999080033629</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5781897173562632</v>
+        <v>0.3179101524439741</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3780009476067003</v>
+        <v>0.4599942885697355</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3618392646312714</v>
+        <v>0.3545732200145721</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4728481769561768</v>
+        <v>0.2701636552810669</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3212795257568359</v>
+        <v>0.3557277619838715</v>
       </c>
     </row>
     <row r="19">
@@ -1152,31 +1152,31 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9687347924100056</v>
+        <v>0.9833756395821015</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9776113301002429</v>
+        <v>0.9909731309854232</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8918605189634438</v>
+        <v>0.8815411974556439</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4308505530331788</v>
+        <v>0.3154472133621622</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3747444275345643</v>
+        <v>0.2398099561734822</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3552453103866674</v>
+        <v>0.3884755697952099</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3478964269161224</v>
+        <v>0.2302350401878357</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3052891194820404</v>
+        <v>0.1816857904195786</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2848574817180634</v>
+        <v>0.2966839671134949</v>
       </c>
     </row>
     <row r="20">
@@ -1190,31 +1190,31 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9747708505538127</v>
+        <v>0.9755886215765271</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9715864731988512</v>
+        <v>0.9816262698501945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8520021817224275</v>
+        <v>0.8681648646537938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3863222999249314</v>
+        <v>0.3819882998671921</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4250740687957276</v>
+        <v>0.3353108949613953</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4229031855058429</v>
+        <v>0.3908343707696503</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2934491038322449</v>
+        <v>0.2938345074653625</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3543646931648254</v>
+        <v>0.273145467042923</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3312081098556519</v>
+        <v>0.3248123228549957</v>
       </c>
     </row>
     <row r="21">
@@ -1228,31 +1228,31 @@
         <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9807245876964258</v>
+        <v>0.9791176294661765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9908070829931245</v>
+        <v>0.9691820499068183</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8356043850726973</v>
+        <v>0.8787144660915143</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3391232690981412</v>
+        <v>0.3515454500090558</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2385376035907874</v>
+        <v>0.4406504447840839</v>
       </c>
       <c r="I21" t="n">
-        <v>0.443805134397197</v>
+        <v>0.3757441409181499</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2716291844844818</v>
+        <v>0.2660641074180603</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1970479190349579</v>
+        <v>0.3614563941955566</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3776176869869232</v>
+        <v>0.2998059391975403</v>
       </c>
     </row>
     <row r="22">
@@ -1266,31 +1266,31 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9698451900581141</v>
+        <v>0.9787495792358214</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9753812057837761</v>
+        <v>0.9913713024849097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5467494228949614</v>
+        <v>0.8435436590605163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4290629442883641</v>
+        <v>0.355223392864648</v>
       </c>
       <c r="H22" t="n">
-        <v>0.392391008412053</v>
+        <v>0.2298215004857544</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7588113317572535</v>
+        <v>0.4379589024177352</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3348462283611298</v>
+        <v>0.2787709534168243</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3061259984970093</v>
+        <v>0.1867526322603226</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6120608448982239</v>
+        <v>0.3510258793830872</v>
       </c>
     </row>
     <row r="23">
@@ -1304,31 +1304,31 @@
         <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9571349556970273</v>
+        <v>0.9725329659124502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9191679055448078</v>
+        <v>0.9802580991096476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8149660487943013</v>
+        <v>0.8833279749868449</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5056179457315038</v>
+        <v>0.4042497321760792</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7076435704357691</v>
+        <v>0.3520081662272504</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4927650726128502</v>
+        <v>0.3688914754995818</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4069857597351074</v>
+        <v>0.3272889256477356</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6434226036071777</v>
+        <v>0.282101571559906</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3746722340583801</v>
+        <v>0.2970719039440155</v>
       </c>
     </row>
     <row r="24">
@@ -1342,31 +1342,31 @@
         <v>65</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9821376431849772</v>
+        <v>0.9688661760763176</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9942155586410798</v>
+        <v>0.9758204938172157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9074311605328342</v>
+        <v>0.8938573664445455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3255904606423159</v>
+        <v>0.4293495756781793</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1889392727053529</v>
+        <v>0.3922889555447261</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3413630757213533</v>
+        <v>0.3520297336503382</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2567647695541382</v>
+        <v>0.339200347661972</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1534747183322906</v>
+        <v>0.2981520593166351</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2660720348358154</v>
+        <v>0.2775024771690369</v>
       </c>
     </row>
     <row r="25">
@@ -1380,31 +1380,31 @@
         <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9793365554234974</v>
+        <v>0.9603866619521088</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9691364827886075</v>
+        <v>0.9237969236865691</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7953365380283364</v>
+        <v>0.8950154194719613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3518158000148149</v>
+        <v>0.4839599430792589</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4404891792260809</v>
+        <v>0.6900581968339339</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5091927184678807</v>
+        <v>0.3633059831629012</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2637330889701843</v>
+        <v>0.3918428421020508</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3702560067176819</v>
+        <v>0.5950247049331665</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3816052973270416</v>
+        <v>0.2848036587238312</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         <v>75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9501873813121828</v>
+        <v>0.9710743490078774</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9682847448077918</v>
+        <v>0.9819997474484541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8035638772209278</v>
+        <v>0.8470093822547656</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5446874189349413</v>
+        <v>0.4158393414731607</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4435551417023833</v>
+        <v>0.3335270231992929</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4942004503063588</v>
+        <v>0.4460060173652979</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4321255683898926</v>
+        <v>0.3382962644100189</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3426921367645264</v>
+        <v>0.2743147909641266</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4247719049453735</v>
+        <v>0.3650792837142944</v>
       </c>
     </row>
     <row r="27">
@@ -1456,31 +1456,31 @@
         <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>0.986203546603943</v>
+        <v>0.9731330921139956</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9843133966729564</v>
+        <v>0.9784505775918542</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8698502974796056</v>
+        <v>0.8276008453745596</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2867089288053319</v>
+        <v>0.4001352938192214</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3159321541527296</v>
+        <v>0.3679370129418264</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3895793079059457</v>
+        <v>0.4638377772594792</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2015387415885925</v>
+        <v>0.3226126432418823</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2598725259304047</v>
+        <v>0.3125818371772766</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2830272912979126</v>
+        <v>0.3603103756904602</v>
       </c>
     </row>
     <row r="28">
@@ -1494,31 +1494,31 @@
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9663386829686351</v>
+        <v>0.9671584138890214</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9638897937250922</v>
+        <v>0.9739163903730393</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8391101095087189</v>
+        <v>0.810209917703079</v>
       </c>
       <c r="G28" t="n">
-        <v>0.446420645984054</v>
+        <v>0.4418709933087152</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4705968238177441</v>
+        <v>0.4009144589529793</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4552896687393476</v>
+        <v>0.4710250956294559</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3258231580257416</v>
+        <v>0.3401107788085938</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3326677083969116</v>
+        <v>0.296751081943512</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3482936322689056</v>
+        <v>0.389899730682373</v>
       </c>
     </row>
     <row r="29">
@@ -1532,31 +1532,31 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9466676618031824</v>
+        <v>0.9731482557313147</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9503998937122552</v>
+        <v>0.9829106279868509</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7015426249446478</v>
+        <v>0.8407823203729532</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5639328984712589</v>
+        <v>0.3990771264522673</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5538607870579989</v>
+        <v>0.3251816228327784</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5986055053655962</v>
+        <v>0.4481994342568881</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4464038610458374</v>
+        <v>0.303755521774292</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4376485347747803</v>
+        <v>0.2359023988246918</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5210515260696411</v>
+        <v>0.3431050777435303</v>
       </c>
     </row>
     <row r="30">
@@ -1570,31 +1570,31 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9739730496652135</v>
+        <v>0.9800583387977606</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9826834927636012</v>
+        <v>0.984981897969507</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8057533963132874</v>
+        <v>0.7532338675877465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3927028514806619</v>
+        <v>0.3455534573298272</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3286315210050187</v>
+        <v>0.3074163719954663</v>
       </c>
       <c r="I30" t="n">
-        <v>0.475991422838382</v>
+        <v>0.5429157533098776</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3091526031494141</v>
+        <v>0.2648272812366486</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2629377543926239</v>
+        <v>0.2517957389354706</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3761652112007141</v>
+        <v>0.4348588883876801</v>
       </c>
     </row>
     <row r="31">
@@ -1608,31 +1608,31 @@
         <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9738434934110418</v>
+        <v>0.9784958213157999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.970165369521406</v>
+        <v>0.9849898171326111</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7654012784833659</v>
+        <v>0.8740988431329214</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3958638601912906</v>
+        <v>0.3580266911117435</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4322123646289642</v>
+        <v>0.3098027653214261</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5242506799197756</v>
+        <v>0.3894723862578733</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3080735504627228</v>
+        <v>0.2839569747447968</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3471738398075104</v>
+        <v>0.2540735006332397</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3994723558425903</v>
+        <v>0.3039681315422058</v>
       </c>
     </row>
     <row r="32">
@@ -1646,31 +1646,31 @@
         <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9170237023647033</v>
+        <v>0.9860082951081328</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9324620607444062</v>
+        <v>0.989809504009416</v>
       </c>
       <c r="F32" t="n">
-        <v>0.553905244956888</v>
+        <v>0.8652090651379475</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7012646542002244</v>
+        <v>0.2876770350392462</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6527482794348527</v>
+        <v>0.2511747149459681</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7564532881596265</v>
+        <v>0.4141175755273668</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5680500268936157</v>
+        <v>0.2097160071134567</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5001333951950073</v>
+        <v>0.2051265090703964</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6112805604934692</v>
+        <v>0.3021659851074219</v>
       </c>
     </row>
     <row r="33">
@@ -1684,31 +1684,31 @@
         <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9627368457309951</v>
+        <v>0.9637733986565216</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9474849395710582</v>
+        <v>0.9820582608865556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6812125665837889</v>
+        <v>0.7377528301776066</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4726822743463029</v>
+        <v>0.4672589429241395</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5732882219640778</v>
+        <v>0.3367642276791387</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6167544040468571</v>
+        <v>0.5783092102201272</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3748018443584442</v>
+        <v>0.3816664814949036</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4935291409492493</v>
+        <v>0.2853036820888519</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4680571556091309</v>
+        <v>0.4662357270717621</v>
       </c>
     </row>
     <row r="34">
@@ -1722,31 +1722,31 @@
         <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9851101454653958</v>
+        <v>0.9771443411980015</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9854341126685524</v>
+        <v>0.9718379674952298</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9073992316512471</v>
+        <v>0.8448862264006205</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2971017749385079</v>
+        <v>0.3687451176400972</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3047880838113615</v>
+        <v>0.4220269777151639</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3415300799389996</v>
+        <v>0.440181044535956</v>
       </c>
       <c r="J34" t="n">
-        <v>0.222419798374176</v>
+        <v>0.2810625731945038</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2472866326570511</v>
+        <v>0.3540000319480896</v>
       </c>
       <c r="L34" t="n">
-        <v>0.256496250629425</v>
+        <v>0.3340845108032227</v>
       </c>
     </row>
     <row r="35">
@@ -1760,31 +1760,31 @@
         <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9825858647520126</v>
+        <v>0.980976351463245</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9900119567896843</v>
+        <v>0.9860658979706599</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8833974162620758</v>
+        <v>0.8671155146191859</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3216806246124866</v>
+        <v>0.3364909403780223</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2501665990762876</v>
+        <v>0.2958488296873752</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3849536029924033</v>
+        <v>0.3952739824973062</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2410333305597305</v>
+        <v>0.2583290338516235</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1927829533815384</v>
+        <v>0.2316397577524185</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2844930589199066</v>
+        <v>0.3172363042831421</v>
       </c>
     </row>
     <row r="36">
@@ -1798,31 +1798,31 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9561209837523479</v>
+        <v>0.9779334959666116</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9545770803862583</v>
+        <v>0.9725741174107706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4462740105578707</v>
+        <v>0.6842482526396025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5169734950013591</v>
+        <v>0.3669012861566674</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5335848214113186</v>
+        <v>0.4111516590283952</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8418900157266207</v>
+        <v>0.6209336560326649</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4251668751239777</v>
+        <v>0.2729640305042267</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4457330107688904</v>
+        <v>0.3352259993553162</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7134218215942383</v>
+        <v>0.4762814044952393</v>
       </c>
     </row>
     <row r="37">
@@ -1836,31 +1836,31 @@
         <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9815547501900175</v>
+        <v>0.9776290935916776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9851532261872392</v>
+        <v>0.9749407589692973</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8784774855005346</v>
+        <v>0.8905222195414408</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3317283370599713</v>
+        <v>0.3651905747531793</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3064615492108502</v>
+        <v>0.3972950619694346</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3733357214993205</v>
+        <v>0.3656545455928104</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2415741980075836</v>
+        <v>0.279875636100769</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2328829318284988</v>
+        <v>0.318515419960022</v>
       </c>
       <c r="L37" t="n">
-        <v>0.28771111369133</v>
+        <v>0.3032974302768707</v>
       </c>
     </row>
     <row r="38">
@@ -1874,31 +1874,31 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9448058567640223</v>
+        <v>0.977706939613456</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9629059535794666</v>
+        <v>0.9894735507397362</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7825468262030475</v>
+        <v>0.8721742790498782</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5747195803974527</v>
+        <v>0.3635438154789215</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4799832783458668</v>
+        <v>0.2583174096219389</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5066355049856942</v>
+        <v>0.3840694616507785</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4902468621730804</v>
+        <v>0.2929562628269196</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4078110456466675</v>
+        <v>0.2053128182888031</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4247389435768127</v>
+        <v>0.3065448105335236</v>
       </c>
     </row>
     <row r="39">
@@ -1912,31 +1912,31 @@
         <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9771266921819663</v>
+        <v>0.9841990757220273</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9678861168931686</v>
+        <v>0.9831014054325825</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7675844698927109</v>
+        <v>0.916827999188333</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3702754988071192</v>
+        <v>0.3056280340344442</v>
       </c>
       <c r="H39" t="n">
-        <v>0.444891161440458</v>
+        <v>0.3270255128308934</v>
       </c>
       <c r="I39" t="n">
-        <v>0.561760071360712</v>
+        <v>0.3168760273707963</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2782007455825806</v>
+        <v>0.2224128693342209</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3622224628925323</v>
+        <v>0.2708105146884918</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4179694950580597</v>
+        <v>0.2479355484247208</v>
       </c>
     </row>
     <row r="40">
@@ -1950,31 +1950,31 @@
         <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9609296104901739</v>
+        <v>0.9710457545728192</v>
       </c>
       <c r="E40" t="n">
-        <v>0.957335699225653</v>
+        <v>0.9844737454481725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7266731488189377</v>
+        <v>0.8951095958154056</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4836862805266485</v>
+        <v>0.4140427422757935</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5201494368075155</v>
+        <v>0.3075450388752748</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5888091607549302</v>
+        <v>0.3482331514924542</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3657750487327576</v>
+        <v>0.3326861262321472</v>
       </c>
       <c r="K40" t="n">
-        <v>0.398852527141571</v>
+        <v>0.2587914168834686</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4473887085914612</v>
+        <v>0.2752188444137573</v>
       </c>
     </row>
     <row r="41">
@@ -1988,31 +1988,31 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9800860604313276</v>
+        <v>0.9630108042003968</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9890663141139846</v>
+        <v>0.9473784144304925</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8760293639683757</v>
+        <v>0.6502184226865859</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3443006743032548</v>
+        <v>0.4715408531564642</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2592800305473356</v>
+        <v>0.5752735699977063</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3848618517764187</v>
+        <v>0.6501003683067162</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2692844271659851</v>
+        <v>0.3793269395828247</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1996419727802277</v>
+        <v>0.5149281024932861</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3082223832607269</v>
+        <v>0.549649715423584</v>
       </c>
     </row>
     <row r="42">
@@ -2026,31 +2026,31 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9823321784950907</v>
+        <v>0.9799260463358814</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9812311649318284</v>
+        <v>0.9784231036964768</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8614795268558535</v>
+        <v>0.8322613187827987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3247469769910521</v>
+        <v>0.3462824950480259</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3389716962881646</v>
+        <v>0.3662842944106312</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4090489836544144</v>
+        <v>0.4571829324052162</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2370704710483551</v>
+        <v>0.2595297396183014</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2837631404399872</v>
+        <v>0.3129071891307831</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3166285753250122</v>
+        <v>0.3394166529178619</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9790001899564655</v>
+        <v>0.9718807687702</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9800202988442082</v>
+        <v>0.9674207736679462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7909221848035169</v>
+        <v>0.873669407421114</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3543584482004343</v>
+        <v>0.407661845708701</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3526602666150339</v>
+        <v>0.4543454571476783</v>
       </c>
       <c r="I43" t="n">
-        <v>0.493457457638301</v>
+        <v>0.4106837558950114</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2533803284168243</v>
+        <v>0.3068246841430664</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2734070718288422</v>
+        <v>0.3668666481971741</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3823767304420471</v>
+        <v>0.3239948749542236</v>
       </c>
     </row>
     <row r="44">
@@ -2102,31 +2102,31 @@
         <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.985130264899342</v>
+        <v>0.9742464160190932</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9907177751338309</v>
+        <v>0.9711903599496156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8880478279440588</v>
+        <v>0.6569277908197436</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2989844866798019</v>
+        <v>0.3959953411579624</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2431921042700329</v>
+        <v>0.4264594285401465</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3670054045079156</v>
+        <v>0.6515891684876542</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2222177684307098</v>
+        <v>0.3071953356266022</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1971707791090012</v>
+        <v>0.348662793636322</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2868969142436981</v>
+        <v>0.5616552829742432</v>
       </c>
     </row>
     <row r="45">
@@ -2140,31 +2140,31 @@
         <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>0.982025138732772</v>
+        <v>0.9838011420860808</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9873318793147203</v>
+        <v>0.9896869178736315</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8800826116939938</v>
+        <v>0.8671133395506129</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3263767535521592</v>
+        <v>0.3131337534467125</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2805141916892321</v>
+        <v>0.2518699715777352</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3885091316298785</v>
+        <v>0.4108788981553055</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2448359578847885</v>
+        <v>0.2321532666683197</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2252035588026047</v>
+        <v>0.1837422698736191</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3083387315273285</v>
+        <v>0.3356753885746002</v>
       </c>
     </row>
     <row r="46">
@@ -2178,31 +2178,31 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.971881708686075</v>
+        <v>0.9682260870486908</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9810930906172862</v>
+        <v>0.9815485439143634</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7967965990711714</v>
+        <v>0.8115285920792541</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4105706074657908</v>
+        <v>0.4347248102790865</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3435520989611657</v>
+        <v>0.3386763659292773</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5082381298726197</v>
+        <v>0.4758815903864861</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3183646500110626</v>
+        <v>0.3628459572792053</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2598538398742676</v>
+        <v>0.2843123376369476</v>
       </c>
       <c r="L46" t="n">
-        <v>0.381843239068985</v>
+        <v>0.3728759288787842</v>
       </c>
     </row>
     <row r="47">
@@ -2216,31 +2216,31 @@
         <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9771651912467557</v>
+        <v>0.9793252134504676</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9678011097499881</v>
+        <v>0.9725691359989175</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7817171807457632</v>
+        <v>0.7354481052659676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3694726974197706</v>
+        <v>0.3524135989801087</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4509834457539614</v>
+        <v>0.4123830925840334</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5197368587834447</v>
+        <v>0.5594592558417377</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2774674594402313</v>
+        <v>0.2586663365364075</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3664014339447021</v>
+        <v>0.3300785720348358</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4042402803897858</v>
+        <v>0.4569836556911469</v>
       </c>
     </row>
     <row r="48">
@@ -2254,31 +2254,31 @@
         <v>55</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9552887751876665</v>
+        <v>0.9435693459992257</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9790404427275118</v>
+        <v>0.9514184233244953</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7475725752517556</v>
+        <v>0.08447112251817734</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5220146198015824</v>
+        <v>0.5899014981529042</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3612320849652421</v>
+        <v>0.5463414723170394</v>
       </c>
       <c r="I48" t="n">
-        <v>0.55881309204275</v>
+        <v>1.103735761712626</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4590398371219635</v>
+        <v>0.4616162478923798</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3069316744804382</v>
+        <v>0.4423191249370575</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4782426655292511</v>
+        <v>0.909570038318634</v>
       </c>
     </row>
     <row r="49">
@@ -2292,31 +2292,31 @@
         <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9797187594341311</v>
+        <v>0.9492796710172662</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9855114782484967</v>
+        <v>0.9697793727184387</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8509117419142719</v>
+        <v>0.826095184811066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3460856008323724</v>
+        <v>0.5526042825577088</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3008686656998302</v>
+        <v>0.4329890080602926</v>
       </c>
       <c r="I49" t="n">
-        <v>0.43407211034914</v>
+        <v>0.4564746173140229</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2594424486160278</v>
+        <v>0.4842723309993744</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2426528930664062</v>
+        <v>0.3877857625484467</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3195000290870667</v>
+        <v>0.3905328512191772</v>
       </c>
     </row>
     <row r="50">
@@ -2330,31 +2330,31 @@
         <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9793629735027549</v>
+        <v>0.9759631137374432</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9878351644600035</v>
+        <v>0.9684387980644634</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8298735285144978</v>
+        <v>0.6079820173792725</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3534707836564441</v>
+        <v>0.380061031792265</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2740081010633748</v>
+        <v>0.4449138362650639</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4483656702764557</v>
+        <v>0.6971290304988459</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2784291505813599</v>
+        <v>0.2748436629772186</v>
       </c>
       <c r="K50" t="n">
-        <v>0.226628452539444</v>
+        <v>0.348067432641983</v>
       </c>
       <c r="L50" t="n">
-        <v>0.372833251953125</v>
+        <v>0.5853553414344788</v>
       </c>
     </row>
     <row r="51">
@@ -2368,31 +2368,31 @@
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9801356004449117</v>
+        <v>0.9728507066117433</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9834133634672706</v>
+        <v>0.980207472518505</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7788257682691786</v>
+        <v>0.8330196962223607</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3445140302338212</v>
+        <v>0.4018484418586064</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3209289921651551</v>
+        <v>0.352283585987926</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5263540517551587</v>
+        <v>0.4517557074023198</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2681728005409241</v>
+        <v>0.3192240595817566</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2812308669090271</v>
+        <v>0.2840559184551239</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4221754968166351</v>
+        <v>0.3360975682735443</v>
       </c>
     </row>
     <row r="52">
@@ -2406,31 +2406,31 @@
         <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>0.970850007068804</v>
+        <v>0.9669835523014989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9833720015832316</v>
+        <v>0.9794631271617571</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8217578708492475</v>
+        <v>0.8656261291557801</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4193504526427184</v>
+        <v>0.4431066759192007</v>
       </c>
       <c r="H52" t="n">
-        <v>0.323062893102506</v>
+        <v>0.3584784852319577</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4736739937094559</v>
+        <v>0.4029828523295972</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3343131840229034</v>
+        <v>0.365831732749939</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2725543975830078</v>
+        <v>0.3090472221374512</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3857845962047577</v>
+        <v>0.3273975253105164</v>
       </c>
     </row>
     <row r="53">
@@ -2444,31 +2444,31 @@
         <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9849531049562347</v>
+        <v>0.9666633038974419</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9856801998795909</v>
+        <v>0.972097243968826</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8650522929377626</v>
+        <v>0.8141333138054206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2991038153998082</v>
+        <v>0.444680669173147</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2999925552874946</v>
+        <v>0.4163830169151018</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4083788187941926</v>
+        <v>0.4718771100786538</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2179213315248489</v>
+        <v>0.2989128232002258</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2484799325466156</v>
+        <v>0.2730690538883209</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3089191019535065</v>
+        <v>0.3716421127319336</v>
       </c>
     </row>
     <row r="54">
@@ -2482,31 +2482,31 @@
         <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0.976945489730038</v>
+        <v>0.9822559011638448</v>
       </c>
       <c r="E54" t="n">
-        <v>0.978542800856874</v>
+        <v>0.9798744307184047</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7668198884741163</v>
+        <v>0.8861090929439712</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3712839141280067</v>
+        <v>0.3246397594090236</v>
       </c>
       <c r="H54" t="n">
-        <v>0.365174824148812</v>
+        <v>0.3535343080926361</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5335054204391934</v>
+        <v>0.3723477508163496</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2687477469444275</v>
+        <v>0.239669069647789</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2374281138181686</v>
+        <v>0.281046450138092</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4064766466617584</v>
+        <v>0.2969858050346375</v>
       </c>
     </row>
     <row r="55">
@@ -2520,31 +2520,31 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9568816951647959</v>
+        <v>0.982035099563156</v>
       </c>
       <c r="E55" t="n">
-        <v>0.940523989431945</v>
+        <v>0.9838396288356861</v>
       </c>
       <c r="F55" t="n">
-        <v>0.706120554853393</v>
+        <v>0.905276481533508</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5077363177155358</v>
+        <v>0.325899101456916</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6044058298967765</v>
+        <v>0.3187036700331257</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6013831577243293</v>
+        <v>0.3341256673772664</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4006791710853577</v>
+        <v>0.2473874390125275</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5089014172554016</v>
+        <v>0.2405409067869186</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4481987357139587</v>
+        <v>0.25499427318573</v>
       </c>
     </row>
     <row r="56">
@@ -2558,31 +2558,31 @@
         <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>0.952695613039223</v>
+        <v>0.9770621506498149</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9712263923160745</v>
+        <v>0.9825623905602276</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7970503316496105</v>
+        <v>0.8424737120840906</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5318915756547449</v>
+        <v>0.368203279951303</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4238750238443884</v>
+        <v>0.3315870679872881</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4958900874645473</v>
+        <v>0.4393526259052855</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4278451800346375</v>
+        <v>0.2759731709957123</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3424443900585175</v>
+        <v>0.2670773565769196</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3934812247753143</v>
+        <v>0.3277914822101593</v>
       </c>
     </row>
     <row r="57">
@@ -2596,31 +2596,31 @@
         <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>0.965543846509599</v>
+        <v>0.9783631742627872</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9821701453381668</v>
+        <v>0.9900855410416669</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8861722511233433</v>
+        <v>0.8515622600702467</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4529115404291053</v>
+        <v>0.3602428117110361</v>
       </c>
       <c r="H57" t="n">
-        <v>0.336467723695712</v>
+        <v>0.248646222312558</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3826685849028424</v>
+        <v>0.433018930556566</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3827449083328247</v>
+        <v>0.2859547734260559</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2701586186885834</v>
+        <v>0.2024893015623093</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3017338514328003</v>
+        <v>0.343252569437027</v>
       </c>
     </row>
     <row r="58">
@@ -2634,31 +2634,31 @@
         <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9735534931479356</v>
+        <v>0.9650299205163053</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9783759758486779</v>
+        <v>0.9742157243734793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9044791046182757</v>
+        <v>0.8356582293213612</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3963060588773462</v>
+        <v>0.4563905839017253</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3696736317513875</v>
+        <v>0.4056360483942528</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3428769946914711</v>
+        <v>0.4592387691571949</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2989692687988281</v>
+        <v>0.3491438329219818</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2928877174854279</v>
+        <v>0.3197747468948364</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2646547853946686</v>
+        <v>0.3874013423919678</v>
       </c>
     </row>
     <row r="59">
@@ -2672,31 +2672,31 @@
         <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9796897398690063</v>
+        <v>0.980346992799102</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9771249604286141</v>
+        <v>0.9738661339992283</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8085967769010921</v>
+        <v>0.8938909211641877</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3486627410950475</v>
+        <v>0.3422531352390665</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3809682837073422</v>
+        <v>0.4045443491548023</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4899021710080431</v>
+        <v>0.3566196381158807</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2570782601833344</v>
+        <v>0.2561669647693634</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2927096486091614</v>
+        <v>0.353764146566391</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3846681416034698</v>
+        <v>0.2554167807102203</v>
       </c>
     </row>
     <row r="60">
@@ -2710,31 +2710,31 @@
         <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9825449009298094</v>
+        <v>0.9648635912768553</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9821658964325197</v>
+        <v>0.9763259564594658</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8583442046396151</v>
+        <v>0.7999434642705919</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3226118366625875</v>
+        <v>0.458364628315833</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3343014132554263</v>
+        <v>0.3851608724877715</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4042167399872187</v>
+        <v>0.4998159665932836</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2400200217962265</v>
+        <v>0.3646878600120544</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2656296789646149</v>
+        <v>0.3289887011051178</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3155514895915985</v>
+        <v>0.410780280828476</v>
       </c>
     </row>
     <row r="61">
@@ -2748,31 +2748,31 @@
         <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9726739335018021</v>
+        <v>0.9753527959078332</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9627029554032478</v>
+        <v>0.9846731593137144</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7611939778365061</v>
+        <v>0.8759225219338543</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4029984009251923</v>
+        <v>0.3827163614494599</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4835145290730307</v>
+        <v>0.3112046455177226</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5589738899489842</v>
+        <v>0.3863670213826449</v>
       </c>
       <c r="J61" t="n">
-        <v>0.299329400062561</v>
+        <v>0.3087530434131622</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3495719432830811</v>
+        <v>0.2472431361675262</v>
       </c>
       <c r="L61" t="n">
-        <v>0.428254246711731</v>
+        <v>0.3347834050655365</v>
       </c>
     </row>
     <row r="62">
@@ -2786,31 +2786,31 @@
         <v>60</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9794324610214485</v>
+        <v>0.9806872474114493</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9871275389137892</v>
+        <v>0.9795596095033168</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9019947671150691</v>
+        <v>0.8052398776109018</v>
       </c>
       <c r="G62" t="n">
-        <v>0.350290008864222</v>
+        <v>0.3386471608438153</v>
       </c>
       <c r="H62" t="n">
-        <v>0.283454034085417</v>
+        <v>0.3596386149948108</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3519278852788507</v>
+        <v>0.4820179657674453</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2736129462718964</v>
+        <v>0.25210240483284</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2298550009727478</v>
+        <v>0.2916074395179749</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2826935350894928</v>
+        <v>0.3694225251674652</v>
       </c>
     </row>
     <row r="63">
@@ -2824,31 +2824,31 @@
         <v>65</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9769490942191947</v>
+        <v>0.9653800571067819</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9885510528118652</v>
+        <v>0.9721131519784117</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8783674563463371</v>
+        <v>0.8084592710778238</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3697047288093331</v>
+        <v>0.4539409722656663</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2670655038960625</v>
+        <v>0.4134803854684951</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3902413200547022</v>
+        <v>0.4775602183892182</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3064854443073273</v>
+        <v>0.3466463983058929</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2127701789140701</v>
+        <v>0.3334387540817261</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2876650989055634</v>
+        <v>0.3896067440509796</v>
       </c>
     </row>
     <row r="64">
@@ -2862,31 +2862,31 @@
         <v>70</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9750661695118741</v>
+        <v>0.9608784127809572</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9684851427088224</v>
+        <v>0.9809753629937388</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8608062995679171</v>
+        <v>0.7788407259476698</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3850432812526472</v>
+        <v>0.4839808336918102</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4437240747481144</v>
+        <v>0.3484267044960958</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4206504356663147</v>
+        <v>0.523339361983197</v>
       </c>
       <c r="J64" t="n">
-        <v>0.298756867647171</v>
+        <v>0.4215200245380402</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3786280155181885</v>
+        <v>0.2781823575496674</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3026317656040192</v>
+        <v>0.4557721316814423</v>
       </c>
     </row>
     <row r="65">
@@ -2900,31 +2900,31 @@
         <v>75</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9779062558761218</v>
+        <v>0.9760880990720041</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9784443966985213</v>
+        <v>0.9882308609492287</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8942641548958262</v>
+        <v>0.9038301918020645</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3616267851552405</v>
+        <v>0.3772301323160749</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3692580545937727</v>
+        <v>0.2709835015198011</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3627236917513545</v>
+        <v>0.3364974279199108</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2797665297985077</v>
+        <v>0.2952466011047363</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3040705323219299</v>
+        <v>0.2159091532230377</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2758019864559174</v>
+        <v>0.2791714072227478</v>
       </c>
     </row>
     <row r="66">
@@ -2938,31 +2938,31 @@
         <v>80</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9487766981444468</v>
+        <v>0.9180432591578819</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9404557959170708</v>
+        <v>0.8857894568664063</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6407829872845937</v>
+        <v>0.5762554619904021</v>
       </c>
       <c r="G66" t="n">
-        <v>0.555415119527659</v>
+        <v>0.7005474529857427</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6074133624004719</v>
+        <v>0.8475884968624694</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6645073466572965</v>
+        <v>0.7041958178368117</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4365105628967285</v>
+        <v>0.5733237266540527</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5162883400917053</v>
+        <v>0.6975753307342529</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5409184694290161</v>
+        <v>0.5989991426467896</v>
       </c>
     </row>
     <row r="67">
@@ -2976,31 +2976,31 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9754043515035611</v>
+        <v>0.9790376272322585</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9825680958873181</v>
+        <v>0.9797879693256449</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8469803459494176</v>
+        <v>0.816191940423211</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3809975593481212</v>
+        <v>0.3543690659431531</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3287301047182994</v>
+        <v>0.3529193443889586</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4386244356723046</v>
+        <v>0.4739849708393679</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2950679063796997</v>
+        <v>0.2677301168441772</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2615014612674713</v>
+        <v>0.2946600019931793</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3300148844718933</v>
+        <v>0.3529561161994934</v>
       </c>
     </row>
     <row r="68">
@@ -3014,31 +3014,31 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9846739598630342</v>
+        <v>0.9709375802623814</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9854050041768223</v>
+        <v>0.9797737406542122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8263409124553626</v>
+        <v>0.771278082904835</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3027362208156305</v>
+        <v>0.4153949064787796</v>
       </c>
       <c r="H68" t="n">
-        <v>0.30362262239071</v>
+        <v>0.3533978766669542</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4640144515931672</v>
+        <v>0.5342236209635046</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2181243002414703</v>
+        <v>0.3211103975772858</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2525535821914673</v>
+        <v>0.2853172719478607</v>
       </c>
       <c r="L68" t="n">
-        <v>0.3270018398761749</v>
+        <v>0.3921583294868469</v>
       </c>
     </row>
     <row r="69">
@@ -3052,31 +3052,31 @@
         <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9810890584545722</v>
+        <v>0.9737285389627449</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9819699663855065</v>
+        <v>0.9747615414551268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8815600122458751</v>
+        <v>0.7392087787966592</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3357158972370317</v>
+        <v>0.3955283077251413</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3355083496750326</v>
+        <v>0.3983168512822279</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3924159194096414</v>
+        <v>0.566849029055448</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2509967088699341</v>
+        <v>0.2999782562255859</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2702185809612274</v>
+        <v>0.3139988780021667</v>
       </c>
       <c r="L69" t="n">
-        <v>0.3025720417499542</v>
+        <v>0.4376856088638306</v>
       </c>
     </row>
     <row r="70">
@@ -3090,31 +3090,31 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9627624701479747</v>
+        <v>0.9686113913664695</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9784888551091098</v>
+        <v>0.9451149657889726</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8769177653335801</v>
+        <v>0.8193771753337545</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4692705919333574</v>
+        <v>0.4324049590540122</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3630858890724252</v>
+        <v>0.5848072595242267</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3806590213510338</v>
+        <v>0.4564202454800257</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3794319033622742</v>
+        <v>0.3334723114967346</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2651504874229431</v>
+        <v>0.5026729702949524</v>
       </c>
       <c r="L70" t="n">
-        <v>0.3124872148036957</v>
+        <v>0.3299592435359955</v>
       </c>
     </row>
     <row r="71">
@@ -3128,31 +3128,31 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9726627723638096</v>
+        <v>0.9823363645447704</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9575745537703954</v>
+        <v>0.9792734044319422</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8957165978305492</v>
+        <v>0.8360534237722137</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4028500824554044</v>
+        <v>0.3238863677507339</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5146004873446171</v>
+        <v>0.3603522241271027</v>
       </c>
       <c r="I71" t="n">
-        <v>0.358743776672827</v>
+        <v>0.4380509959966429</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2881127893924713</v>
+        <v>0.237327367067337</v>
       </c>
       <c r="K71" t="n">
-        <v>0.39832603931427</v>
+        <v>0.3117000460624695</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2638425529003143</v>
+        <v>0.3327085077762604</v>
       </c>
     </row>
     <row r="72">
@@ -3166,31 +3166,31 @@
         <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9820573562089639</v>
+        <v>0.9830560525606105</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9810440574362487</v>
+        <v>0.991021736981337</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7584493398368294</v>
+        <v>0.9050208400017166</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3282335987213539</v>
+        <v>0.3174044557674496</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3458366674909769</v>
+        <v>0.2369279972139015</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5534260603994899</v>
+        <v>0.3370731144186413</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2468900233507156</v>
+        <v>0.2412285804748535</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2960419654846191</v>
+        <v>0.1957347095012665</v>
       </c>
       <c r="L72" t="n">
-        <v>0.4054979681968689</v>
+        <v>0.2648754119873047</v>
       </c>
     </row>
     <row r="73">
@@ -3204,31 +3204,31 @@
         <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9821187625084368</v>
+        <v>0.9803588671872604</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9898775651261009</v>
+        <v>0.9806792857537485</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8650349537584627</v>
+        <v>0.7321264454079504</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3266658468848439</v>
+        <v>0.3448957724971059</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2493012094554223</v>
+        <v>0.3491875538557102</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4100945562558082</v>
+        <v>0.5579371027329181</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2470548301935196</v>
+        <v>0.265470415353775</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2064283788204193</v>
+        <v>0.2973077595233917</v>
       </c>
       <c r="L73" t="n">
-        <v>0.3357701301574707</v>
+        <v>0.4670480787754059</v>
       </c>
     </row>
     <row r="74">
@@ -3242,31 +3242,31 @@
         <v>55</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9763929120149528</v>
+        <v>0.9563794047313753</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9694763154282078</v>
+        <v>0.9482506348914878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8611913391539925</v>
+        <v>0.5805920614869505</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3747697958078955</v>
+        <v>0.5141930202838347</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4343233757079136</v>
+        <v>0.5663098483426136</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4171339236371781</v>
+        <v>0.6966265145584308</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2823029160499573</v>
+        <v>0.4188722968101501</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3576336801052094</v>
+        <v>0.4952926337718964</v>
       </c>
       <c r="L74" t="n">
-        <v>0.3223051130771637</v>
+        <v>0.5477246642112732</v>
       </c>
     </row>
     <row r="75">
@@ -3280,31 +3280,31 @@
         <v>60</v>
       </c>
       <c r="D75" t="n">
-        <v>0.979240611123081</v>
+        <v>0.9637020813628123</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9847816752385407</v>
+        <v>0.9466380279891198</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9066197194864837</v>
+        <v>0.7396712318904035</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3510747917499561</v>
+        <v>0.4642066596789426</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3109733124816983</v>
+        <v>0.5743868834684813</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3331421835512978</v>
+        <v>0.5507301415072287</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2757359445095062</v>
+        <v>0.3471286594867706</v>
       </c>
       <c r="K75" t="n">
-        <v>0.252286434173584</v>
+        <v>0.4842539429664612</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2683801352977753</v>
+        <v>0.436407208442688</v>
       </c>
     </row>
     <row r="76">
@@ -3318,31 +3318,31 @@
         <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9735526519141736</v>
+        <v>0.9829359386501934</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9725610991018897</v>
+        <v>0.9838321764838918</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7539673602044308</v>
+        <v>0.8791061209916655</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4004109261180982</v>
+        <v>0.3198238926077774</v>
       </c>
       <c r="H76" t="n">
-        <v>0.414205634371031</v>
+        <v>0.3193690198274979</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5555412813843027</v>
+        <v>0.3920769980334633</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3117320835590363</v>
+        <v>0.2318433523178101</v>
       </c>
       <c r="K76" t="n">
-        <v>0.3416496813297272</v>
+        <v>0.244973212480545</v>
       </c>
       <c r="L76" t="n">
-        <v>0.4306532740592957</v>
+        <v>0.3292036950588226</v>
       </c>
     </row>
     <row r="77">
@@ -3356,31 +3356,31 @@
         <v>70</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9677859616913072</v>
+        <v>0.9838420873985629</v>
       </c>
       <c r="E77" t="n">
-        <v>0.980076152149064</v>
+        <v>0.9857140061680918</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9023656927934908</v>
+        <v>0.7929435813813338</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4363923697444423</v>
+        <v>0.313490846492675</v>
       </c>
       <c r="H77" t="n">
-        <v>0.350410300545503</v>
+        <v>0.2984914566116157</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3389963349155474</v>
+        <v>0.5081290505542225</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3540636897087097</v>
+        <v>0.2360159903764725</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3004398345947266</v>
+        <v>0.2419792115688324</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2718882262706757</v>
+        <v>0.3911856114864349</v>
       </c>
     </row>
     <row r="78">
@@ -3394,31 +3394,31 @@
         <v>75</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9572956179782238</v>
+        <v>0.8552081713393904</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9499416654566154</v>
+        <v>0.8515311304357471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6513573532571004</v>
+        <v>0.6020070915907934</v>
       </c>
       <c r="G78" t="n">
-        <v>0.507434675071381</v>
+        <v>0.9291876082063307</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5558528478886617</v>
+        <v>0.9608150187023681</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6697721174916149</v>
+        <v>0.6861414491026813</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4191320538520813</v>
+        <v>0.7334064245223999</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5038561224937439</v>
+        <v>0.7669295072555542</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5291597247123718</v>
+        <v>0.5744049549102783</v>
       </c>
     </row>
     <row r="79">
@@ -3432,31 +3432,31 @@
         <v>80</v>
       </c>
       <c r="D79" t="n">
-        <v>0.973820132596985</v>
+        <v>0.9854329216522895</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9868444955419781</v>
+        <v>0.9902282100898816</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8807238446507091</v>
+        <v>0.8696616264957512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3942152022702202</v>
+        <v>0.2938056563347383</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2877553950888572</v>
+        <v>0.2463886371285367</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3878760889255041</v>
+        <v>0.4060376235730611</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3331477344036102</v>
+        <v>0.218625545501709</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2330959588289261</v>
+        <v>0.1886306703090668</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3219333589076996</v>
+        <v>0.3034966588020325</v>
       </c>
     </row>
     <row r="80">
@@ -3470,31 +3470,31 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9815852269463746</v>
+        <v>0.9736746628218408</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9875055158160905</v>
+        <v>0.9808554543661639</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8915503999984413</v>
+        <v>0.7909153901326675</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3305167607452164</v>
+        <v>0.3966135650775318</v>
       </c>
       <c r="H80" t="n">
-        <v>0.281557669836311</v>
+        <v>0.3456282022614124</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3612231746534268</v>
+        <v>0.5097348434099501</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2573749423027039</v>
+        <v>0.3112296760082245</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2278645485639572</v>
+        <v>0.2843596637248993</v>
       </c>
       <c r="L80" t="n">
-        <v>0.291043758392334</v>
+        <v>0.4071279466152191</v>
       </c>
     </row>
     <row r="81">
@@ -3508,31 +3508,31 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9785865986776614</v>
+        <v>0.9683139990576445</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9839844959137325</v>
+        <v>0.9541203003409119</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8678803103305048</v>
+        <v>0.6343006084219209</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3562255600024727</v>
+        <v>0.4348812576714334</v>
       </c>
       <c r="H81" t="n">
-        <v>0.318639444831904</v>
+        <v>0.536563582110994</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3980386832370451</v>
+        <v>0.689366559437795</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2770647704601288</v>
+        <v>0.3219047784805298</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2476401925086975</v>
+        <v>0.4115433990955353</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3133069574832916</v>
+        <v>0.5357347726821899</v>
       </c>
     </row>
     <row r="82">
@@ -3546,31 +3546,31 @@
         <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9803144717660541</v>
+        <v>0.9664018597514928</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9813014788977001</v>
+        <v>0.9774921202988337</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8516366161598956</v>
+        <v>0.706846937473224</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3419206558615114</v>
+        <v>0.4488757441054285</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3392999068407346</v>
+        <v>0.3735539250863191</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4322329638352301</v>
+        <v>0.6052229843948789</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2605341970920563</v>
+        <v>0.3496719300746918</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2848685085773468</v>
+        <v>0.3032316565513611</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3345170915126801</v>
+        <v>0.5080071091651917</v>
       </c>
     </row>
     <row r="83">
@@ -3584,31 +3584,31 @@
         <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9767793137788001</v>
+        <v>0.9527213407974352</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9750580846218522</v>
+        <v>0.9406813195240158</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7166473285920668</v>
+        <v>0.6723493651782915</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3747069087660855</v>
+        <v>0.5339753145287783</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3943007333958611</v>
+        <v>0.6072966762442976</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5836165172216163</v>
+        <v>0.6318908856184485</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2938780188560486</v>
+        <v>0.4188688397407532</v>
       </c>
       <c r="K83" t="n">
-        <v>0.328967958688736</v>
+        <v>0.502602756023407</v>
       </c>
       <c r="L83" t="n">
-        <v>0.474262535572052</v>
+        <v>0.5079806447029114</v>
       </c>
     </row>
     <row r="84">
@@ -3622,31 +3622,31 @@
         <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9788977479374847</v>
+        <v>0.9716314701026052</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9775277390353985</v>
+        <v>0.9770115977490011</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5707065112803533</v>
+        <v>0.8036246093736136</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3596262882555659</v>
+        <v>0.4134328120766705</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3777382930327559</v>
+        <v>0.3789977327004708</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7247061446317722</v>
+        <v>0.485549870893791</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2770490050315857</v>
+        <v>0.3288260102272034</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3145107328891754</v>
+        <v>0.3202314972877502</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5794117450714111</v>
+        <v>0.3954260349273682</v>
       </c>
     </row>
     <row r="85">
@@ -3660,31 +3660,31 @@
         <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9785986026978905</v>
+        <v>0.9765282080814026</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9805173197364464</v>
+        <v>0.9758492665776982</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8776090674293133</v>
+        <v>0.89515168451045</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3573094800988628</v>
+        <v>0.3725919896027977</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3488070696278348</v>
+        <v>0.3861640844190157</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3874166337443536</v>
+        <v>0.3555752940378057</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2659206986427307</v>
+        <v>0.2709101736545563</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2827646434307098</v>
+        <v>0.2968449294567108</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2866252064704895</v>
+        <v>0.2594899535179138</v>
       </c>
     </row>
     <row r="86">
@@ -3698,31 +3698,31 @@
         <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9487756106043089</v>
+        <v>0.9809193535233248</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9215455628237408</v>
+        <v>0.980287883426827</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7062631207456503</v>
+        <v>0.7412894402171284</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5543515705976501</v>
+        <v>0.3389059918527073</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7013748427727237</v>
+        <v>0.3499112238011342</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6109115838995579</v>
+        <v>0.549513338180496</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4182909429073334</v>
+        <v>0.2424742877483368</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5889521241188049</v>
+        <v>0.2791765332221985</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4679843187332153</v>
+        <v>0.4223004281520844</v>
       </c>
     </row>
     <row r="87">
@@ -3736,31 +3736,31 @@
         <v>55</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9706271162357051</v>
+        <v>0.977835896598663</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9706567790557831</v>
+        <v>0.9780866396555746</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8926867696380497</v>
+        <v>0.7161395104825756</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4170779780953293</v>
+        <v>0.3639212272841044</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4270118463590461</v>
+        <v>0.3678691502442045</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3718197997981783</v>
+        <v>0.5806711421654294</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3217664062976837</v>
+        <v>0.28177210688591</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3546745479106903</v>
+        <v>0.3126776218414307</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2858198285102844</v>
+        <v>0.4624245464801788</v>
       </c>
     </row>
     <row r="88">
@@ -3774,31 +3774,31 @@
         <v>60</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9828784150019956</v>
+        <v>0.968002695010199</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9934614034004117</v>
+        <v>0.9788931626999038</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8633332468910642</v>
+        <v>0.7553777946326834</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3200512611600012</v>
+        <v>0.4365420412199926</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2018806508250684</v>
+        <v>0.362148220279033</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4116608769026398</v>
+        <v>0.5692837463850192</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2451229393482208</v>
+        <v>0.3479904234409332</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1654490232467651</v>
+        <v>0.3123928606510162</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3254605233669281</v>
+        <v>0.4390905201435089</v>
       </c>
     </row>
     <row r="89">
@@ -3812,31 +3812,31 @@
         <v>65</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9403470519020827</v>
+        <v>0.96994622424167</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9439002253844293</v>
+        <v>0.9549321809450781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1375114862673358</v>
+        <v>0.8083725671581296</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6091248903765659</v>
+        <v>0.4227553471791611</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5920678201486924</v>
+        <v>0.5317341898050524</v>
       </c>
       <c r="I89" t="n">
-        <v>1.037343374172671</v>
+        <v>0.4854235221586076</v>
       </c>
       <c r="J89" t="n">
-        <v>0.475309282541275</v>
+        <v>0.3124083578586578</v>
       </c>
       <c r="K89" t="n">
-        <v>0.492443710565567</v>
+        <v>0.4284176528453827</v>
       </c>
       <c r="L89" t="n">
-        <v>0.8693803548812866</v>
+        <v>0.3702878952026367</v>
       </c>
     </row>
     <row r="90">
@@ -3850,31 +3850,31 @@
         <v>70</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9863030567300012</v>
+        <v>0.9831988815864914</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9900875809171688</v>
+        <v>0.9858220338535043</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8049561747795251</v>
+        <v>0.9127562625555629</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2871457290988727</v>
+        <v>0.3153991920681573</v>
       </c>
       <c r="H90" t="n">
-        <v>0.249573574871785</v>
+        <v>0.2972245793320923</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4909429255088005</v>
+        <v>0.3240233717372797</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2040132731199265</v>
+        <v>0.2358168959617615</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2105746567249298</v>
+        <v>0.24141825735569</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3599348664283752</v>
+        <v>0.2530416548252106</v>
       </c>
     </row>
     <row r="91">
@@ -3888,31 +3888,31 @@
         <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9595398972116934</v>
+        <v>0.9778010151308849</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9670182683055082</v>
+        <v>0.9803275660460964</v>
       </c>
       <c r="F91" t="n">
-        <v>0.831982256130271</v>
+        <v>0.8835186750024167</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4905618736330161</v>
+        <v>0.3623586033601561</v>
       </c>
       <c r="H91" t="n">
-        <v>0.452378167274394</v>
+        <v>0.3550133985019198</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4439239268558105</v>
+        <v>0.3871803418807089</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3971475958824158</v>
+        <v>0.2570323944091797</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3653907477855682</v>
+        <v>0.2532572150230408</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3583503365516663</v>
+        <v>0.2772715985774994</v>
       </c>
     </row>
     <row r="92">
@@ -3926,31 +3926,31 @@
         <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9747298248041153</v>
+        <v>0.9792062040021509</v>
       </c>
       <c r="E92" t="n">
-        <v>0.983461273868796</v>
+        <v>0.9815890079067924</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8580638741413764</v>
+        <v>0.8541168848561088</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3865933455771231</v>
+        <v>0.3511965542481674</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3211583970419322</v>
+        <v>0.3398698051374105</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4140100265938118</v>
+        <v>0.4320299800419552</v>
       </c>
       <c r="J92" t="n">
-        <v>0.297040581703186</v>
+        <v>0.2578297555446625</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2545965909957886</v>
+        <v>0.2512156069278717</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3226549923419952</v>
+        <v>0.3207403421401978</v>
       </c>
     </row>
     <row r="93">
@@ -3964,31 +3964,31 @@
         <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9322191408446763</v>
+        <v>0.9624408718443981</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9365393951184381</v>
+        <v>0.9701314257010912</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3401997072067751</v>
+        <v>0.7706513828345741</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6436864923427986</v>
+        <v>0.4739312087321465</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6317854659190841</v>
+        <v>0.4348151385276743</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9336515273088274</v>
+        <v>0.5179160688258204</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5258263349533081</v>
+        <v>0.3914591670036316</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5472092032432556</v>
+        <v>0.34813392162323</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7110141515731812</v>
+        <v>0.441983699798584</v>
       </c>
     </row>
     <row r="94">
@@ -4002,31 +4002,31 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9697148698092406</v>
+        <v>0.9823163589886128</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9716957972494683</v>
+        <v>0.9860053452312129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7816274037826094</v>
+        <v>0.8868376158096664</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4236618981724566</v>
+        <v>0.3241061279298999</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4211335023648431</v>
+        <v>0.2947878880589995</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5510696575889318</v>
+        <v>0.3627576438576933</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3284842371940613</v>
+        <v>0.2466247528791428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3552323579788208</v>
+        <v>0.2439059317111969</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3973537385463715</v>
+        <v>0.2790086567401886</v>
       </c>
     </row>
     <row r="95">
@@ -4040,31 +4040,31 @@
         <v>30</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9779581625454292</v>
+        <v>0.9655759443719902</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9765288520744523</v>
+        <v>0.9671423647499824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7879475319562879</v>
+        <v>0.6321370032158018</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3631654780506876</v>
+        <v>0.4550412208099225</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3842060454363594</v>
+        <v>0.4520808224967224</v>
       </c>
       <c r="I95" t="n">
-        <v>0.5089007234961385</v>
+        <v>0.6758977976940773</v>
       </c>
       <c r="J95" t="n">
-        <v>0.273728996515274</v>
+        <v>0.3683093190193176</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3088191151618958</v>
+        <v>0.3813038468360901</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3967856168746948</v>
+        <v>0.5644012689590454</v>
       </c>
     </row>
     <row r="96">
@@ -4078,31 +4078,31 @@
         <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9748845625052754</v>
+        <v>0.9761752125153207</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9753048918121624</v>
+        <v>0.9791408831381238</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8434353112064858</v>
+        <v>0.8090712557038429</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3860368400013974</v>
+        <v>0.3765586805347782</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3957252752312398</v>
+        <v>0.360094635300002</v>
       </c>
       <c r="I96" t="n">
-        <v>0.4336235620370897</v>
+        <v>0.5027155151623548</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2934369444847107</v>
+        <v>0.2821242213249207</v>
       </c>
       <c r="K96" t="n">
-        <v>0.283155083656311</v>
+        <v>0.2852133512496948</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3388780653476715</v>
+        <v>0.3720127046108246</v>
       </c>
     </row>
     <row r="97">
@@ -4116,31 +4116,31 @@
         <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9798191171148372</v>
+        <v>0.9731875616732079</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9912719651722391</v>
+        <v>0.9631875647495721</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8541911972427517</v>
+        <v>0.847674143562498</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3471293904133659</v>
+        <v>0.4001495566026146</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2327663769573801</v>
+        <v>0.4821784606155528</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4279726140104453</v>
+        <v>0.4265628255766021</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2626971006393433</v>
+        <v>0.310551792383194</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1803216636180878</v>
+        <v>0.4124667346477509</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3400943279266357</v>
+        <v>0.3314321637153625</v>
       </c>
     </row>
     <row r="98">
@@ -4154,31 +4154,31 @@
         <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>0.983604919082383</v>
+        <v>0.9847510950609387</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9837376821463487</v>
+        <v>0.9880984592801295</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8355197608319854</v>
+        <v>0.9179115270768727</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3133955996528831</v>
+        <v>0.3009490746305315</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3205057235919357</v>
+        <v>0.2738246220950986</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4440552044724873</v>
+        <v>0.3128322980333844</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2233979403972626</v>
+        <v>0.2173267602920532</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2468262314796448</v>
+        <v>0.2131118774414062</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3522331118583679</v>
+        <v>0.2500288784503937</v>
       </c>
     </row>
     <row r="99">
@@ -4192,31 +4192,31 @@
         <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9620137200150917</v>
+        <v>0.9774106850646712</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9821296700162716</v>
+        <v>0.9730201782412998</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8265678812620162</v>
+        <v>0.7878245884704949</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4792859164029029</v>
+        <v>0.3677958866020051</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3349930439233959</v>
+        <v>0.4116691117883313</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4574942566558042</v>
+        <v>0.5007935128220662</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4068326950073242</v>
+        <v>0.2771382033824921</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2608616054058075</v>
+        <v>0.3398953378200531</v>
       </c>
       <c r="L99" t="n">
-        <v>0.398551881313324</v>
+        <v>0.4025146961212158</v>
       </c>
     </row>
     <row r="100">
@@ -4230,31 +4230,31 @@
         <v>55</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9543906117707908</v>
+        <v>0.9842748040234361</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9746891323630676</v>
+        <v>0.9858136558596607</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7828048507730063</v>
+        <v>0.8700924665617796</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5216731040707713</v>
+        <v>0.3051031041390014</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3967142988738774</v>
+        <v>0.3022556580738845</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5198575479449485</v>
+        <v>0.4004496647175007</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4171625673770905</v>
+        <v>0.2216436117887497</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3228885233402252</v>
+        <v>0.2333854138851166</v>
       </c>
       <c r="L100" t="n">
-        <v>0.4415397047996521</v>
+        <v>0.2975574135780334</v>
       </c>
     </row>
     <row r="101">
@@ -4268,31 +4268,31 @@
         <v>60</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9768847937598173</v>
+        <v>0.9835452008621898</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9802385614499081</v>
+        <v>0.9845351991454666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8782464215671546</v>
+        <v>0.8461516293140126</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3697480547623602</v>
+        <v>0.3127695589955384</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3505934180521564</v>
+        <v>0.3130197018281836</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3822904647406342</v>
+        <v>0.4412230221063104</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2841649353504181</v>
+        <v>0.2365852296352386</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2946631908416748</v>
+        <v>0.254424661397934</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2924538552761078</v>
+        <v>0.3356243968009949</v>
       </c>
     </row>
     <row r="102">
@@ -4306,31 +4306,31 @@
         <v>65</v>
       </c>
       <c r="D102" t="n">
-        <v>0.983548692606524</v>
+        <v>0.9725788466193727</v>
       </c>
       <c r="E102" t="n">
-        <v>0.983467207527098</v>
+        <v>0.9617612589128823</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7853301276706177</v>
+        <v>0.6977934617090584</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3122430340934415</v>
+        <v>0.4072747144886711</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3240730233907066</v>
+        <v>0.4876962285153514</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5354487044648326</v>
+        <v>0.6063168891894936</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2314913272857666</v>
+        <v>0.3168292343616486</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2596913576126099</v>
+        <v>0.4272030293941498</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3907387852668762</v>
+        <v>0.4996441006660461</v>
       </c>
     </row>
     <row r="103">
@@ -4344,31 +4344,31 @@
         <v>70</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9814664427250605</v>
+        <v>0.9711497164828037</v>
       </c>
       <c r="E103" t="n">
-        <v>0.975900970687836</v>
+        <v>0.9816897239068491</v>
       </c>
       <c r="F103" t="n">
-        <v>0.56536058788156</v>
+        <v>0.8500129280671905</v>
       </c>
       <c r="G103" t="n">
-        <v>0.338816460322231</v>
+        <v>0.4144663550649894</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3906982353223321</v>
+        <v>0.3357916781624319</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7357685988677857</v>
+        <v>0.4262129318922046</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2475118488073349</v>
+        <v>0.3352665603160858</v>
       </c>
       <c r="K103" t="n">
-        <v>0.326798290014267</v>
+        <v>0.2730188965797424</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5964798927307129</v>
+        <v>0.3437990248203278</v>
       </c>
     </row>
     <row r="104">
@@ -4382,31 +4382,31 @@
         <v>75</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9576434434776736</v>
+        <v>0.9811340704277077</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9483725399177749</v>
+        <v>0.9903216856611733</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7579982434834922</v>
+        <v>0.8844587419086777</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5013072686525823</v>
+        <v>0.3340765730995446</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5655001265376427</v>
+        <v>0.2477194961030363</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5742483845024984</v>
+        <v>0.3728285744935606</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3967454433441162</v>
+        <v>0.2591210603713989</v>
       </c>
       <c r="K104" t="n">
-        <v>0.464015007019043</v>
+        <v>0.1958028078079224</v>
       </c>
       <c r="L104" t="n">
-        <v>0.4243126511573792</v>
+        <v>0.2933468222618103</v>
       </c>
     </row>
     <row r="105">
@@ -4420,31 +4420,31 @@
         <v>80</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9771519586900038</v>
+        <v>0.9784302993676385</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9705666544938296</v>
+        <v>0.985119656419145</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7479150200640732</v>
+        <v>0.8879666058363941</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3704797986529706</v>
+        <v>0.3586028137391308</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4298510846947756</v>
+        <v>0.3053978318139637</v>
       </c>
       <c r="I105" t="n">
-        <v>0.5510524866475663</v>
+        <v>0.3691648646878308</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2818169295787811</v>
+        <v>0.2861764132976532</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3830592036247253</v>
+        <v>0.2533760070800781</v>
       </c>
       <c r="L105" t="n">
-        <v>0.4458093047142029</v>
+        <v>0.2878816425800323</v>
       </c>
     </row>
     <row r="106">
@@ -4458,31 +4458,31 @@
         <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9715214931916573</v>
+        <v>0.9790779685378189</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9648004887214743</v>
+        <v>0.9802563004073069</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6362286811964846</v>
+        <v>0.8537845093736117</v>
       </c>
       <c r="G106" t="n">
-        <v>0.414571790758152</v>
+        <v>0.3524098251877205</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4703662188954943</v>
+        <v>0.3489031344734626</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6724147402948948</v>
+        <v>0.4227661504666437</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3019950091838837</v>
+        <v>0.2734949290752411</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3847284615039825</v>
+        <v>0.3044494986534119</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5330109596252441</v>
+        <v>0.3241665065288544</v>
       </c>
     </row>
     <row r="107">
@@ -4496,31 +4496,31 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9823166457523718</v>
+        <v>0.9811756299781429</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9835553918714341</v>
+        <v>0.9841800113871041</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8684816716734257</v>
+        <v>0.8550322544033284</v>
       </c>
       <c r="G107" t="n">
-        <v>0.324779634318081</v>
+        <v>0.3351915749916189</v>
       </c>
       <c r="H107" t="n">
-        <v>0.320236336561767</v>
+        <v>0.3144330675824587</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4097306359319803</v>
+        <v>0.4298122051649038</v>
       </c>
       <c r="J107" t="n">
-        <v>0.24653360247612</v>
+        <v>0.2511936724185944</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2608312666416168</v>
+        <v>0.2602995932102203</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2955015599727631</v>
+        <v>0.3190470039844513</v>
       </c>
     </row>
     <row r="108">
@@ -4534,31 +4534,31 @@
         <v>30</v>
       </c>
       <c r="D108" t="n">
-        <v>0.963155168017958</v>
+        <v>0.9810669302485768</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9586349723882103</v>
+        <v>0.9774055241866259</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4035446464816668</v>
+        <v>0.8917107145776332</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4745968161597121</v>
+        <v>0.3352634520800962</v>
       </c>
       <c r="H108" t="n">
-        <v>0.510392194926815</v>
+        <v>0.3760070193946801</v>
       </c>
       <c r="I108" t="n">
-        <v>0.867193170477396</v>
+        <v>0.3581618273774828</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3858340978622437</v>
+        <v>0.2436162382364273</v>
       </c>
       <c r="K108" t="n">
-        <v>0.4408942759037018</v>
+        <v>0.3067517876625061</v>
       </c>
       <c r="L108" t="n">
-        <v>0.7633755803108215</v>
+        <v>0.2793035209178925</v>
       </c>
     </row>
     <row r="109">
@@ -4572,31 +4572,31 @@
         <v>35</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9488415846234221</v>
+        <v>0.9799607073627749</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9342496124538999</v>
+        <v>0.9868797026286901</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7767929797126572</v>
+        <v>0.8894226383630199</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5512421485445539</v>
+        <v>0.3448703563228229</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6423840447075062</v>
+        <v>0.2853190466849403</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5065373476480304</v>
+        <v>0.3644483543484446</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4010802507400513</v>
+        <v>0.2615194320678711</v>
       </c>
       <c r="K109" t="n">
-        <v>0.492757260799408</v>
+        <v>0.2332268208265305</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3875491619110107</v>
+        <v>0.2740519344806671</v>
       </c>
     </row>
     <row r="110">
@@ -4610,31 +4610,31 @@
         <v>40</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9797466641469776</v>
+        <v>0.9797622124325081</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9853852238528307</v>
+        <v>0.990165225709557</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8755405087791458</v>
+        <v>0.8780628397191912</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3464079208058425</v>
+        <v>0.3478752582239309</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3023536010241342</v>
+        <v>0.2498067690216027</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3847945536470913</v>
+        <v>0.4013200718311385</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2691334187984467</v>
+        <v>0.2694430649280548</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2396593242883682</v>
+        <v>0.1832613050937653</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3024997413158417</v>
+        <v>0.2989781200885773</v>
       </c>
     </row>
     <row r="111">
@@ -4648,31 +4648,31 @@
         <v>45</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9802673758648967</v>
+        <v>0.9782233777273982</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9895653634289723</v>
+        <v>0.9779461396680329</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9156216040128071</v>
+        <v>0.8127143148899101</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3417513135788515</v>
+        <v>0.3613408679261639</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2534403708374136</v>
+        <v>0.3714553476699648</v>
       </c>
       <c r="I111" t="n">
-        <v>0.32967062631247</v>
+        <v>0.4714589204530295</v>
       </c>
       <c r="J111" t="n">
-        <v>0.263767808675766</v>
+        <v>0.2755275070667267</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2121106833219528</v>
+        <v>0.3035469651222229</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2411428540945053</v>
+        <v>0.3788481950759888</v>
       </c>
     </row>
     <row r="112">
@@ -4686,31 +4686,31 @@
         <v>50</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9401556688998367</v>
+        <v>0.9692003706184924</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9613835841539459</v>
+        <v>0.9780455490650549</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7279201657173775</v>
+        <v>0.8636505579885826</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5984894423688938</v>
+        <v>0.4277745406570541</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4879856130157926</v>
+        <v>0.3691843804156114</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5786983636680344</v>
+        <v>0.4034345894434487</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5039340257644653</v>
+        <v>0.3250146210193634</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3934160172939301</v>
+        <v>0.2991219460964203</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5020185708999634</v>
+        <v>0.3243651688098907</v>
       </c>
     </row>
     <row r="113">
@@ -4724,31 +4724,31 @@
         <v>55</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9270100393480267</v>
+        <v>0.8556332112278968</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8987069874376955</v>
+        <v>0.9082724301799481</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5586589469889711</v>
+        <v>0.1901185417196506</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6597072044693301</v>
+        <v>0.9309668513726173</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7977633666804818</v>
+        <v>0.7543241301343325</v>
       </c>
       <c r="I113" t="n">
-        <v>0.7361304222628845</v>
+        <v>0.9696702892805794</v>
       </c>
       <c r="J113" t="n">
-        <v>0.525576651096344</v>
+        <v>0.8349445462226868</v>
       </c>
       <c r="K113" t="n">
-        <v>0.636067271232605</v>
+        <v>0.6525791883468628</v>
       </c>
       <c r="L113" t="n">
-        <v>0.630278468132019</v>
+        <v>0.8635154962539673</v>
       </c>
     </row>
     <row r="114">
@@ -4762,31 +4762,31 @@
         <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9859247742612017</v>
+        <v>0.9853734020146627</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9907061862158784</v>
+        <v>0.9834142185470555</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9008876823088884</v>
+        <v>0.8323262763415843</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2888177531502844</v>
+        <v>0.2945881022216129</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2405430044077746</v>
+        <v>0.3250564989167897</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3469200375676704</v>
+        <v>0.4584924862265725</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2137178778648376</v>
+        <v>0.2131697982549667</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1909795105457306</v>
+        <v>0.2668508887290955</v>
       </c>
       <c r="L114" t="n">
-        <v>0.260341078042984</v>
+        <v>0.3447266519069672</v>
       </c>
     </row>
     <row r="115">
@@ -4800,31 +4800,31 @@
         <v>65</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9789328495565789</v>
+        <v>0.9562684679884796</v>
       </c>
       <c r="E115" t="n">
-        <v>0.991310984417475</v>
+        <v>0.9530730308083353</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8786022680676113</v>
+        <v>0.784558979979629</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3551092111138403</v>
+        <v>0.5126683109984218</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2341576283479365</v>
+        <v>0.5378660663214778</v>
       </c>
       <c r="I115" t="n">
-        <v>0.376756982718385</v>
+        <v>0.503601484768961</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2890702486038208</v>
+        <v>0.4163707196712494</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2010625749826431</v>
+        <v>0.448874294757843</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3058722317218781</v>
+        <v>0.3944715857505798</v>
       </c>
     </row>
     <row r="116">
@@ -4838,31 +4838,31 @@
         <v>70</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9832372763810531</v>
+        <v>0.9485096350305907</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9824159942551639</v>
+        <v>0.9699275971600312</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7877806357641735</v>
+        <v>0.8163897772453542</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3178984693232978</v>
+        <v>0.5550170242001113</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3308221681249801</v>
+        <v>0.432281760213321</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5190925753869915</v>
+        <v>0.4611390045150985</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2334873080253601</v>
+        <v>0.4542050659656525</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2787376344203949</v>
+        <v>0.3520271480083466</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4054659605026245</v>
+        <v>0.3768991231918335</v>
       </c>
     </row>
     <row r="117">
@@ -4876,31 +4876,31 @@
         <v>75</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9822263519325509</v>
+        <v>0.9833761688834878</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9764583823738844</v>
+        <v>0.9880616832011113</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8215803858987407</v>
+        <v>0.8624631639058729</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3253013048618413</v>
+        <v>0.3151486683256498</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3849096077229552</v>
+        <v>0.2729031518812502</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4645742869529883</v>
+        <v>0.4000670637595407</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2382776886224747</v>
+        <v>0.2340588122606277</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3157031536102295</v>
+        <v>0.2079936563968658</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3573203086853027</v>
+        <v>0.3114668726921082</v>
       </c>
     </row>
     <row r="118">
@@ -4914,31 +4914,31 @@
         <v>80</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9714186476729796</v>
+        <v>0.9806938342435618</v>
       </c>
       <c r="E118" t="n">
-        <v>0.977261404777003</v>
+        <v>0.9865217131941382</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7374648692142529</v>
+        <v>0.7412583787750278</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4127120181167432</v>
+        <v>0.3439905127177671</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3745829130339395</v>
+        <v>0.2889763987384827</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5532849538528843</v>
+        <v>0.5586668913646571</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3365713059902191</v>
+        <v>0.2590140104293823</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3122011721134186</v>
+        <v>0.2404614835977554</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4385600686073303</v>
+        <v>0.4515874981880188</v>
       </c>
     </row>
     <row r="119">
@@ -4952,31 +4952,31 @@
         <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9759592215159207</v>
+        <v>0.977776800705071</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9674669685408118</v>
+        <v>0.9767352072402089</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6867017341875898</v>
+        <v>0.8525796685008259</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3813325339236139</v>
+        <v>0.3629453192844576</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4494982969147834</v>
+        <v>0.3823122142013023</v>
       </c>
       <c r="I119" t="n">
-        <v>0.6253624103764991</v>
+        <v>0.4383999899971223</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2870076298713684</v>
+        <v>0.27073934674263</v>
       </c>
       <c r="K119" t="n">
-        <v>0.364827960729599</v>
+        <v>0.3038005828857422</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4914558529853821</v>
+        <v>0.3244269490242004</v>
       </c>
     </row>
     <row r="120">
@@ -4990,31 +4990,31 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9813494425325285</v>
+        <v>0.9823392446458369</v>
       </c>
       <c r="E120" t="n">
-        <v>0.977768870624059</v>
+        <v>0.9766746771973738</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9105502083366634</v>
+        <v>0.7493289050417458</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3319061716889717</v>
+        <v>0.3260459085600881</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3730977807588096</v>
+        <v>0.3820928309448201</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3227884617484661</v>
+        <v>0.5562799992133418</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2367253005504608</v>
+        <v>0.2409222424030304</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2833561897277832</v>
+        <v>0.322659820318222</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2306557446718216</v>
+        <v>0.4165471196174622</v>
       </c>
     </row>
     <row r="121">
@@ -5028,31 +5028,31 @@
         <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>0.954250992750616</v>
+        <v>0.9762342445664612</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9780498930366524</v>
+        <v>0.9800585442319294</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7439275452053</v>
+        <v>0.8912255757035489</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5248294087682484</v>
+        <v>0.3747433936813646</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3672556712398888</v>
+        <v>0.3525514045731716</v>
       </c>
       <c r="I121" t="n">
-        <v>0.54912453246189</v>
+        <v>0.365585953510397</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4357180595397949</v>
+        <v>0.3045614361763</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2953061163425446</v>
+        <v>0.2906311750411987</v>
       </c>
       <c r="L121" t="n">
-        <v>0.473806619644165</v>
+        <v>0.2940954864025116</v>
       </c>
     </row>
     <row r="122">
@@ -5066,31 +5066,31 @@
         <v>35</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9719258655026944</v>
+        <v>0.9711995931763127</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9824522747186153</v>
+        <v>0.9647164004649964</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8398659493409734</v>
+        <v>0.7119125882415283</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4079247396947665</v>
+        <v>0.4140793419057843</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3293748507598886</v>
+        <v>0.4720992755330431</v>
       </c>
       <c r="I122" t="n">
-        <v>0.43909777367244</v>
+        <v>0.5744738887799193</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3181679844856262</v>
+        <v>0.3226871490478516</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2577072083950043</v>
+        <v>0.3927307426929474</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3438839614391327</v>
+        <v>0.4792444109916687</v>
       </c>
     </row>
     <row r="123">
@@ -5104,31 +5104,31 @@
         <v>40</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9737823223178483</v>
+        <v>0.9752741574355848</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9810434065270057</v>
+        <v>0.9844523682917961</v>
       </c>
       <c r="F123" t="n">
-        <v>0.878318858306366</v>
+        <v>0.8621493018141442</v>
       </c>
       <c r="G123" t="n">
-        <v>0.393286469265387</v>
+        <v>0.3830935166882023</v>
       </c>
       <c r="H123" t="n">
-        <v>0.340839899150653</v>
+        <v>0.311220613819727</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3924024388069811</v>
+        <v>0.4139926059679969</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3027412295341492</v>
+        <v>0.3035737276077271</v>
       </c>
       <c r="K123" t="n">
-        <v>0.288203626871109</v>
+        <v>0.2570334672927856</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2912879586219788</v>
+        <v>0.3055696785449982</v>
       </c>
     </row>
     <row r="124">
@@ -5142,31 +5142,31 @@
         <v>45</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9711756467062921</v>
+        <v>0.9803880449393935</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9811652227942094</v>
+        <v>0.9815034280806583</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8478255753666453</v>
+        <v>0.8352742060564838</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4141834190435849</v>
+        <v>0.3418637891392283</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3430298609587737</v>
+        <v>0.3395165479648279</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4293484477199784</v>
+        <v>0.443536630562782</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3365969061851501</v>
+        <v>0.2673839032649994</v>
       </c>
       <c r="K124" t="n">
-        <v>0.263404369354248</v>
+        <v>0.2767384648323059</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3341268301010132</v>
+        <v>0.3507961332798004</v>
       </c>
     </row>
     <row r="125">
@@ -5180,31 +5180,31 @@
         <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9846667780713535</v>
+        <v>0.9781573461650499</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9853986657587666</v>
+        <v>0.9892145243524004</v>
       </c>
       <c r="F125" t="n">
-        <v>0.865586393897344</v>
+        <v>0.7942369783419492</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3019759121447845</v>
+        <v>0.362018791152285</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3009761946451265</v>
+        <v>0.2575517260346797</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3946167126239408</v>
+        <v>0.4997204207549327</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2202029526233673</v>
+        <v>0.2801644504070282</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2562754452228546</v>
+        <v>0.1997971087694168</v>
       </c>
       <c r="L125" t="n">
-        <v>0.308239758014679</v>
+        <v>0.3940245807170868</v>
       </c>
     </row>
     <row r="126">
@@ -5218,31 +5218,31 @@
         <v>55</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9819735354466611</v>
+        <v>0.9684515933462488</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9917591019599071</v>
+        <v>0.9752545086438604</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7703874725589995</v>
+        <v>0.8520615492891987</v>
       </c>
       <c r="G126" t="n">
-        <v>0.32769570196358</v>
+        <v>0.4336587668121331</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2242247896344673</v>
+        <v>0.3941049633395501</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5387439062743067</v>
+        <v>0.4198695127975269</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2506793737411499</v>
+        <v>0.3476912081241608</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1839386969804764</v>
+        <v>0.3365692496299744</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4200482964515686</v>
+        <v>0.3322313129901886</v>
       </c>
     </row>
     <row r="127">
@@ -5256,31 +5256,31 @@
         <v>60</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975882130673754</v>
+        <v>0.9792230753471332</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9855811060363849</v>
+        <v>0.9790608898613051</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9030850402250069</v>
+        <v>0.7616969911325245</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3781123742446859</v>
+        <v>0.3522341775636822</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3007298091149986</v>
+        <v>0.3617958340993334</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3363377936343614</v>
+        <v>0.5597719158875937</v>
       </c>
       <c r="J127" t="n">
-        <v>0.313406765460968</v>
+        <v>0.2744280695915222</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2544662058353424</v>
+        <v>0.3128029108047485</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2651055455207825</v>
+        <v>0.4290938675403595</v>
       </c>
     </row>
     <row r="128">
@@ -5294,31 +5294,31 @@
         <v>65</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9827217076414629</v>
+        <v>0.9819972403348348</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9833227275756682</v>
+        <v>0.9850698063620708</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8319378070396868</v>
+        <v>0.8813157045154187</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3211224364486121</v>
+        <v>0.3268401330108918</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3229722685269287</v>
+        <v>0.3040556469347902</v>
       </c>
       <c r="I128" t="n">
-        <v>0.4482851859684788</v>
+        <v>0.3942325329875319</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2412522584199905</v>
+        <v>0.2437037825584412</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2696681916713715</v>
+        <v>0.2349104732275009</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3299704194068909</v>
+        <v>0.2959732115268707</v>
       </c>
     </row>
     <row r="129">
@@ -5332,31 +5332,31 @@
         <v>70</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9710651154039609</v>
+        <v>0.9737071327200137</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9646599652266693</v>
+        <v>0.970544783365195</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7798366692053332</v>
+        <v>0.6218259611797263</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4155072432608514</v>
+        <v>0.3985996851223124</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4674698993610845</v>
+        <v>0.4308349028318336</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5091894408573326</v>
+        <v>0.7041914799135011</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3214601874351501</v>
+        <v>0.3052355945110321</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3762012422084808</v>
+        <v>0.3465329706668854</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4120384156703949</v>
+        <v>0.5602778792381287</v>
       </c>
     </row>
     <row r="130">
@@ -5370,31 +5370,31 @@
         <v>75</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9631505654841256</v>
+        <v>0.9622211773213322</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9525375761199043</v>
+        <v>0.9811127804856759</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6729611763573797</v>
+        <v>0.868546860644642</v>
       </c>
       <c r="G130" t="n">
-        <v>0.4720438465658793</v>
+        <v>0.4762967885430316</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5469420255731623</v>
+        <v>0.3416367509972515</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6437482991242393</v>
+        <v>0.3931807452403697</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3929906189441681</v>
+        <v>0.3955894410610199</v>
       </c>
       <c r="K130" t="n">
-        <v>0.4879187047481537</v>
+        <v>0.2775374352931976</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5315558910369873</v>
+        <v>0.3473246097564697</v>
       </c>
     </row>
     <row r="131">
@@ -5408,31 +5408,31 @@
         <v>80</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9601225364786077</v>
+        <v>0.9856490029438462</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9510540113714833</v>
+        <v>0.9953382978556967</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8373254273291882</v>
+        <v>0.9162033215592446</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4865106446962918</v>
+        <v>0.2926621549410809</v>
       </c>
       <c r="H131" t="n">
-        <v>0.554780307581388</v>
+        <v>0.1718207999948276</v>
       </c>
       <c r="I131" t="n">
-        <v>0.4395518721791772</v>
+        <v>0.3255321945750926</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3872871696949005</v>
+        <v>0.219114363193512</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4697576761245728</v>
+        <v>0.1301843523979187</v>
       </c>
       <c r="L131" t="n">
-        <v>0.358102023601532</v>
+        <v>0.2479262202978134</v>
       </c>
     </row>
     <row r="132">
@@ -5446,31 +5446,31 @@
         <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9777680643201189</v>
+        <v>0.946072480000412</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9866412009996056</v>
+        <v>0.9534515717552869</v>
       </c>
       <c r="F132" t="n">
-        <v>0.837769818322915</v>
+        <v>0.4791841612871157</v>
       </c>
       <c r="G132" t="n">
-        <v>0.3637897255431795</v>
+        <v>0.5698986903724275</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2869684041953867</v>
+        <v>0.5384646708075098</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4621109169993143</v>
+        <v>0.8435221470365782</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2834039032459259</v>
+        <v>0.4773384928703308</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2268097102642059</v>
+        <v>0.4539121687412262</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3528035581111908</v>
+        <v>0.6604974865913391</v>
       </c>
     </row>
     <row r="133">
@@ -5484,31 +5484,31 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9540640904118911</v>
+        <v>0.9746307444700436</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9538686619020366</v>
+        <v>0.9805823025764561</v>
       </c>
       <c r="F133" t="n">
-        <v>0.641247752086624</v>
+        <v>0.9030181759766449</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5292391024095121</v>
+        <v>0.3875030502076233</v>
       </c>
       <c r="H133" t="n">
-        <v>0.5335382100323122</v>
+        <v>0.3475071983998332</v>
       </c>
       <c r="I133" t="n">
-        <v>0.6489476874036001</v>
+        <v>0.338390773988934</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4224089384078979</v>
+        <v>0.3057083487510681</v>
       </c>
       <c r="K133" t="n">
-        <v>0.4304441213607788</v>
+        <v>0.2690310776233673</v>
       </c>
       <c r="L133" t="n">
-        <v>0.517687976360321</v>
+        <v>0.2548597157001495</v>
       </c>
     </row>
     <row r="134">
@@ -5522,31 +5522,31 @@
         <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9814535088729522</v>
+        <v>0.9781735612408141</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9782246993913148</v>
+        <v>0.9771355815520059</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8750751542733614</v>
+        <v>0.8737981650657995</v>
       </c>
       <c r="G134" t="n">
-        <v>0.33159588713097</v>
+        <v>0.3592925391751575</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3695793168983276</v>
+        <v>0.3786740722340656</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4030099556760455</v>
+        <v>0.3831373704652498</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2393772900104523</v>
+        <v>0.2627522051334381</v>
       </c>
       <c r="K134" t="n">
-        <v>0.31369349360466</v>
+        <v>0.2934074699878693</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2725242972373962</v>
+        <v>0.2987326383590698</v>
       </c>
     </row>
     <row r="135">
@@ -5560,31 +5560,31 @@
         <v>35</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9620590570857268</v>
+        <v>0.9699765349615738</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9489263978166746</v>
+        <v>0.9659545775501954</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7349961969734984</v>
+        <v>0.5908309764569275</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4769823226302236</v>
+        <v>0.4268465277250973</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5679738943084763</v>
+        <v>0.4647893312801074</v>
       </c>
       <c r="I135" t="n">
-        <v>0.5729688418356824</v>
+        <v>0.6959805012210545</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3784459233283997</v>
+        <v>0.3321001529693604</v>
       </c>
       <c r="K135" t="n">
-        <v>0.496201366186142</v>
+        <v>0.3885761797428131</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4554539322853088</v>
+        <v>0.5871196389198303</v>
       </c>
     </row>
     <row r="136">
@@ -5598,31 +5598,31 @@
         <v>40</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9743557902905104</v>
+        <v>0.9542379343395702</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9636266683241245</v>
+        <v>0.9605054594907689</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6130050864363776</v>
+        <v>0.7967409612904268</v>
       </c>
       <c r="G136" t="n">
-        <v>0.3920409669732346</v>
+        <v>0.5217316859019115</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4791217934978623</v>
+        <v>0.4955191100099064</v>
       </c>
       <c r="I136" t="n">
-        <v>0.6853257825323535</v>
+        <v>0.4969703858665317</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2928870618343353</v>
+        <v>0.4149589538574219</v>
       </c>
       <c r="K136" t="n">
-        <v>0.396843284368515</v>
+        <v>0.397600531578064</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5889521837234497</v>
+        <v>0.3824992477893829</v>
       </c>
     </row>
     <row r="137">
@@ -5636,31 +5636,31 @@
         <v>45</v>
       </c>
       <c r="D137" t="n">
-        <v>0.976193826825316</v>
+        <v>0.9724910912483233</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9802407754504237</v>
+        <v>0.9764202072267806</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8379922890388795</v>
+        <v>0.6235660905887364</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3763382794176516</v>
+        <v>0.4068656071810737</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3528454577153211</v>
+        <v>0.3821978402785878</v>
       </c>
       <c r="I137" t="n">
-        <v>0.4374466080102317</v>
+        <v>0.6653550751386827</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3061342537403107</v>
+        <v>0.3141201138496399</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2992444336414337</v>
+        <v>0.3049694299697876</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3527231812477112</v>
+        <v>0.5577681064605713</v>
       </c>
     </row>
     <row r="138">
@@ -5674,31 +5674,31 @@
         <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9811364209016717</v>
+        <v>0.9871794479106052</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9887497656709423</v>
+        <v>0.9914809966628972</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8853723911330839</v>
+        <v>0.821911712092277</v>
       </c>
       <c r="G138" t="n">
-        <v>0.3345106674091395</v>
+        <v>0.2773897240372213</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2632748900191505</v>
+        <v>0.2295918025262206</v>
       </c>
       <c r="I138" t="n">
-        <v>0.364554481272975</v>
+        <v>0.4730467326182144</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2591016292572021</v>
+        <v>0.1993104070425034</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2171967625617981</v>
+        <v>0.1874916255474091</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2853129804134369</v>
+        <v>0.363837718963623</v>
       </c>
     </row>
     <row r="139">
@@ -5712,31 +5712,31 @@
         <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9721494668863865</v>
+        <v>0.9775590796849966</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9750134587420067</v>
+        <v>0.9861389862136802</v>
       </c>
       <c r="F139" t="n">
-        <v>0.840629129742667</v>
+        <v>0.9077620241319332</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4090676347717721</v>
+        <v>0.3650295478801364</v>
       </c>
       <c r="H139" t="n">
-        <v>0.397388179783679</v>
+        <v>0.2921165278115807</v>
       </c>
       <c r="I139" t="n">
-        <v>0.43588760117743</v>
+        <v>0.3336008893037453</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3264608681201935</v>
+        <v>0.272593766450882</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2975600063800812</v>
+        <v>0.22983118891716</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3342421352863312</v>
+        <v>0.2612386643886566</v>
       </c>
     </row>
     <row r="140">
@@ -5750,31 +5750,31 @@
         <v>60</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9830902779395089</v>
+        <v>0.9672424203487797</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9864921660328797</v>
+        <v>0.9599993471481314</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8645969475100096</v>
+        <v>0.6466747835400131</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3174227880098139</v>
+        <v>0.4443713498938082</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2901952945690224</v>
+        <v>0.5015979207684043</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4031156339222697</v>
+        <v>0.6575647762068109</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2369493097066879</v>
+        <v>0.3503073155879974</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2364918142557144</v>
+        <v>0.4455539882183075</v>
       </c>
       <c r="L140" t="n">
-        <v>0.3140343129634857</v>
+        <v>0.5450018048286438</v>
       </c>
     </row>
     <row r="141">
@@ -5788,31 +5788,31 @@
         <v>65</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9752165239828736</v>
+        <v>0.9706894124203232</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9702105969066538</v>
+        <v>0.9596959114733299</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7523037324523183</v>
+        <v>0.8096210593380456</v>
       </c>
       <c r="G141" t="n">
-        <v>0.3874089603229258</v>
+        <v>0.4172542382911288</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4347216910401993</v>
+        <v>0.5013915902690493</v>
       </c>
       <c r="I141" t="n">
-        <v>0.5395621320126039</v>
+        <v>0.4680112580622356</v>
       </c>
       <c r="J141" t="n">
-        <v>0.289294958114624</v>
+        <v>0.3171979486942291</v>
       </c>
       <c r="K141" t="n">
-        <v>0.343066930770874</v>
+        <v>0.434849888086319</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3979756832122803</v>
+        <v>0.3663105666637421</v>
       </c>
     </row>
     <row r="142">
@@ -5826,31 +5826,31 @@
         <v>70</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9807971234347769</v>
+        <v>0.9829237735725342</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9849946497222647</v>
+        <v>0.9824290198919563</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7865151688615606</v>
+        <v>0.8424047403323238</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3396982341849603</v>
+        <v>0.3182573447522408</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3060266458777947</v>
+        <v>0.3302531032517526</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5095555833739901</v>
+        <v>0.4546734725780927</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2604779899120331</v>
+        <v>0.2371042817831039</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2594247758388519</v>
+        <v>0.2908249199390411</v>
       </c>
       <c r="L142" t="n">
-        <v>0.3946256637573242</v>
+        <v>0.3186236917972565</v>
       </c>
     </row>
     <row r="143">
@@ -5864,31 +5864,31 @@
         <v>75</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9770609185001625</v>
+        <v>0.9706372032165717</v>
       </c>
       <c r="E143" t="n">
-        <v>0.985294308356523</v>
+        <v>0.9825512662944828</v>
       </c>
       <c r="F143" t="n">
-        <v>0.873760957940845</v>
+        <v>0.8859309845052813</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3693264286747749</v>
+        <v>0.4176012188027215</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3054647069795183</v>
+        <v>0.3284598072908042</v>
       </c>
       <c r="I143" t="n">
-        <v>0.3815848068602625</v>
+        <v>0.3808300496084324</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2958196699619293</v>
+        <v>0.3522993326187134</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2390670329332352</v>
+        <v>0.2730491459369659</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3085139393806458</v>
+        <v>0.2976366579532623</v>
       </c>
     </row>
     <row r="144">
@@ -5902,31 +5902,31 @@
         <v>80</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9768838356708258</v>
+        <v>0.9820595285298009</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9708514461754598</v>
+        <v>0.9899962411363016</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8782035475480049</v>
+        <v>0.8654175521292076</v>
       </c>
       <c r="G144" t="n">
-        <v>0.3704854496957217</v>
+        <v>0.326816401726986</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4263007992597135</v>
+        <v>0.2483407254940315</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3904743285465653</v>
+        <v>0.4134620955886568</v>
       </c>
       <c r="J144" t="n">
-        <v>0.272235631942749</v>
+        <v>0.2514788210391998</v>
       </c>
       <c r="K144" t="n">
-        <v>0.3335676789283752</v>
+        <v>0.2014783620834351</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2974917888641357</v>
+        <v>0.3065984845161438</v>
       </c>
     </row>
     <row r="145">
@@ -5940,31 +5940,31 @@
         <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>0.986604488983808</v>
+        <v>0.9746199244379943</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9926717718685893</v>
+        <v>0.9781396406019659</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9070765999927006</v>
+        <v>0.7893941946952607</v>
       </c>
       <c r="G145" t="n">
-        <v>0.281411905840813</v>
+        <v>0.39037055311501</v>
       </c>
       <c r="H145" t="n">
-        <v>0.2155537058960099</v>
+        <v>0.3708324516300192</v>
       </c>
       <c r="I145" t="n">
-        <v>0.3396804351387806</v>
+        <v>0.4931366865661291</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2016002982854843</v>
+        <v>0.303468257188797</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1691449582576752</v>
+        <v>0.2909306883811951</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2504316866397858</v>
+        <v>0.4034771025180817</v>
       </c>
     </row>
     <row r="146">
@@ -5978,31 +5978,31 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9817759083020301</v>
+        <v>0.9626174163701712</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9790717175678834</v>
+        <v>0.9619007293290928</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8238056780855231</v>
+        <v>0.4469281983042902</v>
       </c>
       <c r="G146" t="n">
-        <v>0.3303694370644324</v>
+        <v>0.4752967628968704</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3628917574993156</v>
+        <v>0.4922701448355044</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4559458698762076</v>
+        <v>0.8220039730625709</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2473742365837097</v>
+        <v>0.3892223834991455</v>
       </c>
       <c r="K146" t="n">
-        <v>0.28409543633461</v>
+        <v>0.4135389029979706</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3435469567775726</v>
+        <v>0.718361496925354</v>
       </c>
     </row>
     <row r="147">
@@ -6016,31 +6016,31 @@
         <v>30</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9678622620391487</v>
+        <v>0.9785844749570789</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9628478684302821</v>
+        <v>0.9840283349147286</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8852867070412069</v>
+        <v>0.8492385271026341</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4359184185760527</v>
+        <v>0.3582501221488217</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4812730244912694</v>
+        <v>0.3183218811048937</v>
       </c>
       <c r="I147" t="n">
-        <v>0.371361525446176</v>
+        <v>0.4245556682462115</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3136377036571503</v>
+        <v>0.2707369923591614</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3560324907302856</v>
+        <v>0.2578346431255341</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2743172943592072</v>
+        <v>0.3264617025852203</v>
       </c>
     </row>
     <row r="148">
@@ -6054,31 +6054,31 @@
         <v>35</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9721965780162944</v>
+        <v>0.9776620451929301</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9747657445380349</v>
+        <v>0.9692730582740754</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8820728504736418</v>
+        <v>0.6766140523901587</v>
       </c>
       <c r="G148" t="n">
-        <v>0.406575036233125</v>
+        <v>0.367867732507364</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4009793117482829</v>
+        <v>0.4377446001755727</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3847327242499295</v>
+        <v>0.6241173233302733</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3087726235389709</v>
+        <v>0.2715994715690613</v>
       </c>
       <c r="K148" t="n">
-        <v>0.3003117144107819</v>
+        <v>0.3826399445533752</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2869347631931305</v>
+        <v>0.5138554573059082</v>
       </c>
     </row>
     <row r="149">
@@ -6092,31 +6092,31 @@
         <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9512698684516</v>
+        <v>0.9793054211672825</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9389921107262198</v>
+        <v>0.9729411447629279</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6484737533010853</v>
+        <v>0.7861149851073229</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5379669002398118</v>
+        <v>0.3526844665265744</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6154029009869361</v>
+        <v>0.4130652131637838</v>
       </c>
       <c r="I149" t="n">
-        <v>0.7128953489382227</v>
+        <v>0.5049104664531995</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3782199919223785</v>
+        <v>0.2649023234844208</v>
       </c>
       <c r="K149" t="n">
-        <v>0.440025806427002</v>
+        <v>0.3627342879772186</v>
       </c>
       <c r="L149" t="n">
-        <v>0.4718769788742065</v>
+        <v>0.399343729019165</v>
       </c>
     </row>
     <row r="150">
@@ -6130,31 +6130,31 @@
         <v>45</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9829221013929273</v>
+        <v>0.9536829623443456</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9839885641964602</v>
+        <v>0.9550444879871827</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9097429536222279</v>
+        <v>0.758810678064611</v>
       </c>
       <c r="G150" t="n">
-        <v>0.3183824963744868</v>
+        <v>0.5241223026245346</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3176025920794274</v>
+        <v>0.5281351438372046</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3280294937831037</v>
+        <v>0.5326489093931566</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2360315918922424</v>
+        <v>0.4156720340251923</v>
       </c>
       <c r="K150" t="n">
-        <v>0.2536961138248444</v>
+        <v>0.4394702017307281</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2425748109817505</v>
+        <v>0.4232295155525208</v>
       </c>
     </row>
     <row r="151">
@@ -6168,31 +6168,31 @@
         <v>50</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9512861351208637</v>
+        <v>0.9846716980514247</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9449083994228074</v>
+        <v>0.9873910052641336</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5806426785407177</v>
+        <v>0.8171501545893595</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5389476045539183</v>
+        <v>0.3032735146150697</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5882765811567718</v>
+        <v>0.2793661845179689</v>
       </c>
       <c r="I151" t="n">
-        <v>0.7088007413270402</v>
+        <v>0.4673346290986486</v>
       </c>
       <c r="J151" t="n">
-        <v>0.4207906723022461</v>
+        <v>0.2281811833381653</v>
       </c>
       <c r="K151" t="n">
-        <v>0.4666361212730408</v>
+        <v>0.228619396686554</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5976560711860657</v>
+        <v>0.3778949677944183</v>
       </c>
     </row>
     <row r="152">
@@ -6206,31 +6206,31 @@
         <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9608714298294648</v>
+        <v>0.9848988572837264</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9604597054629239</v>
+        <v>0.9880959706498142</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8542907520955645</v>
+        <v>0.8540266996619273</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4817309354465244</v>
+        <v>0.2995180878709852</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4960760879376253</v>
+        <v>0.2747085186117612</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4227935716010858</v>
+        <v>0.4208911974786514</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3588980436325073</v>
+        <v>0.2237625569105148</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3721413910388947</v>
+        <v>0.2177885323762894</v>
       </c>
       <c r="L152" t="n">
-        <v>0.312892884016037</v>
+        <v>0.3280125260353088</v>
       </c>
     </row>
     <row r="153">
@@ -6244,31 +6244,31 @@
         <v>60</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9387802706410359</v>
+        <v>0.9826695348344491</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9249179860424639</v>
+        <v>0.9850435383997234</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8066387657759935</v>
+        <v>0.8394656101807771</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6045556350960274</v>
+        <v>0.3211252206383612</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6847909960749768</v>
+        <v>0.3039938660656891</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4722026350674505</v>
+        <v>0.4483661023233653</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4824829697608948</v>
+        <v>0.2424535602331161</v>
       </c>
       <c r="K153" t="n">
-        <v>0.5416110157966614</v>
+        <v>0.2547723650932312</v>
       </c>
       <c r="L153" t="n">
-        <v>0.3646835684776306</v>
+        <v>0.3429421782493591</v>
       </c>
     </row>
     <row r="154">
@@ -6282,31 +6282,31 @@
         <v>65</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9820342980074396</v>
+        <v>0.9737256093674688</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9886426298104111</v>
+        <v>0.9772092652311575</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8931095382120003</v>
+        <v>0.7982736316180754</v>
       </c>
       <c r="G154" t="n">
-        <v>0.3264130254821089</v>
+        <v>0.3966678889974359</v>
       </c>
       <c r="H154" t="n">
-        <v>0.2626565387004874</v>
+        <v>0.375473319798543</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3667461908684813</v>
+        <v>0.4991402685236079</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2404123544692993</v>
+        <v>0.3087011873722076</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2052498459815979</v>
+        <v>0.3129762411117554</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2834232747554779</v>
+        <v>0.3874521255493164</v>
       </c>
     </row>
     <row r="155">
@@ -6320,31 +6320,31 @@
         <v>70</v>
       </c>
       <c r="D155" t="n">
-        <v>0.963552307941474</v>
+        <v>0.9470371945484832</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9567925743107272</v>
+        <v>0.9586991913621481</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5597954613851359</v>
+        <v>0.6989823584760879</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4708326169517716</v>
+        <v>0.5612836508231519</v>
       </c>
       <c r="H155" t="n">
-        <v>0.5210181162790766</v>
+        <v>0.5046234645314606</v>
       </c>
       <c r="I155" t="n">
-        <v>0.7204958403107899</v>
+        <v>0.6253858805565223</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3744731247425079</v>
+        <v>0.4505894780158997</v>
       </c>
       <c r="K155" t="n">
-        <v>0.4530600309371948</v>
+        <v>0.3777103424072266</v>
       </c>
       <c r="L155" t="n">
-        <v>0.597085177898407</v>
+        <v>0.4934284389019012</v>
       </c>
     </row>
     <row r="156">
@@ -6358,31 +6358,31 @@
         <v>75</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9655671518543963</v>
+        <v>0.9832379904919528</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9668375160679744</v>
+        <v>0.9848723387120115</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9043588672008189</v>
+        <v>0.9053585926481396</v>
       </c>
       <c r="G156" t="n">
-        <v>0.451652122632312</v>
+        <v>0.3151276267069708</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4561009352961934</v>
+        <v>0.3082729676260778</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3379490201026074</v>
+        <v>0.3324203791511849</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3490087389945984</v>
+        <v>0.234806701540947</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3542825281620026</v>
+        <v>0.2433411329984665</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2595041394233704</v>
+        <v>0.2679286599159241</v>
       </c>
     </row>
     <row r="157">
@@ -6396,31 +6396,31 @@
         <v>80</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9719953174198979</v>
+        <v>0.9686319424306715</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9616398704885396</v>
+        <v>0.9776953449209267</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7316718598855008</v>
+        <v>0.883946239827734</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4094005707769883</v>
+        <v>0.4305554034461843</v>
       </c>
       <c r="H157" t="n">
-        <v>0.490281653689096</v>
+        <v>0.3717740098078797</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5639582910198322</v>
+        <v>0.379072290594427</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3270777761936188</v>
+        <v>0.3225942552089691</v>
       </c>
       <c r="K157" t="n">
-        <v>0.4281602799892426</v>
+        <v>0.2892316877841949</v>
       </c>
       <c r="L157" t="n">
-        <v>0.4663085639476776</v>
+        <v>0.2910484075546265</v>
       </c>
     </row>
     <row r="158">
@@ -6434,31 +6434,31 @@
         <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8880499936372248</v>
+        <v>0.9787456145261906</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8315519861363059</v>
+        <v>0.9733992743673439</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4082723459328762</v>
+        <v>0.8637876103924852</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8186702456468556</v>
+        <v>0.3545059327542431</v>
       </c>
       <c r="H158" t="n">
-        <v>1.02626125612951</v>
+        <v>0.4044957616216185</v>
       </c>
       <c r="I158" t="n">
-        <v>0.8380435546171958</v>
+        <v>0.4155609081442642</v>
       </c>
       <c r="J158" t="n">
-        <v>0.6913158893585205</v>
+        <v>0.265127032995224</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9362461566925049</v>
+        <v>0.3303296566009521</v>
       </c>
       <c r="L158" t="n">
-        <v>0.7137961983680725</v>
+        <v>0.30641108751297</v>
       </c>
     </row>
     <row r="159">
@@ -6472,31 +6472,31 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9638235943811468</v>
+        <v>0.9763825896230983</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9786507127523625</v>
+        <v>0.9799702123402618</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8570747417818012</v>
+        <v>0.5040564451106194</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4644847092344482</v>
+        <v>0.380265462406743</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3601237044451792</v>
+        <v>0.3549751165896918</v>
       </c>
       <c r="I159" t="n">
-        <v>0.4270425540559896</v>
+        <v>0.8101392341379198</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3797469139099121</v>
+        <v>0.296471506357193</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2951086759567261</v>
+        <v>0.3007734417915344</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3466275036334991</v>
+        <v>0.6764931082725525</v>
       </c>
     </row>
     <row r="160">
@@ -6510,31 +6510,31 @@
         <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9800174661575853</v>
+        <v>0.9726420635839333</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9774162246362036</v>
+        <v>0.9911350541999044</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8891009549874613</v>
+        <v>0.852631536626604</v>
       </c>
       <c r="G160" t="n">
-        <v>0.3446983023236486</v>
+        <v>0.4078371698218294</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3767993395885119</v>
+        <v>0.2355437779895133</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3657770256505759</v>
+        <v>0.43921381898417</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2595890462398529</v>
+        <v>0.329020619392395</v>
       </c>
       <c r="K160" t="n">
-        <v>0.305652529001236</v>
+        <v>0.1949185580015182</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2784829139709473</v>
+        <v>0.3440941274166107</v>
       </c>
     </row>
     <row r="161">
@@ -6548,31 +6548,31 @@
         <v>35</v>
       </c>
       <c r="D161" t="n">
-        <v>0.979893643020207</v>
+        <v>0.9764238267412961</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9875434386089589</v>
+        <v>0.9785660917802579</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8562999555631705</v>
+        <v>0.571501832936772</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3456585095597884</v>
+        <v>0.3772182224217216</v>
       </c>
       <c r="H161" t="n">
-        <v>0.2769013086008731</v>
+        <v>0.3656127723866294</v>
       </c>
       <c r="I161" t="n">
-        <v>0.4201978973936141</v>
+        <v>0.7278974431263022</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2775921821594238</v>
+        <v>0.284896045923233</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2440553456544876</v>
+        <v>0.2987178564071655</v>
       </c>
       <c r="L161" t="n">
-        <v>0.3016877472400665</v>
+        <v>0.5980414748191833</v>
       </c>
     </row>
     <row r="162">
@@ -6586,31 +6586,31 @@
         <v>40</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9713375962754439</v>
+        <v>0.9726670192073289</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9745745055098221</v>
+        <v>0.9657493290171713</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7364682728733569</v>
+        <v>0.8909276880894804</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4152365898869925</v>
+        <v>0.4028801351782763</v>
       </c>
       <c r="H162" t="n">
-        <v>0.3972855727027259</v>
+        <v>0.4636946025828365</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5562838297639946</v>
+        <v>0.3636201077994681</v>
       </c>
       <c r="J162" t="n">
-        <v>0.3266534805297852</v>
+        <v>0.2974470257759094</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3132883906364441</v>
+        <v>0.3408888578414917</v>
       </c>
       <c r="L162" t="n">
-        <v>0.425506591796875</v>
+        <v>0.2805903553962708</v>
       </c>
     </row>
     <row r="163">
@@ -6624,31 +6624,31 @@
         <v>45</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9354143838629968</v>
+        <v>0.9837091764331169</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9582883601429364</v>
+        <v>0.9864835053405755</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.07528266242088133</v>
+        <v>0.9126670667814922</v>
       </c>
       <c r="G163" t="n">
-        <v>0.6345046930267311</v>
+        <v>0.3112968649301028</v>
       </c>
       <c r="H163" t="n">
-        <v>0.5088583812975085</v>
+        <v>0.2894366652201338</v>
       </c>
       <c r="I163" t="n">
-        <v>1.146491809411452</v>
+        <v>0.3250756029078405</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5122337937355042</v>
+        <v>0.2330053746700287</v>
       </c>
       <c r="K163" t="n">
-        <v>0.4305720925331116</v>
+        <v>0.2310097217559814</v>
       </c>
       <c r="L163" t="n">
-        <v>1.090958952903748</v>
+        <v>0.2496945708990097</v>
       </c>
     </row>
     <row r="164">
@@ -6662,31 +6662,31 @@
         <v>50</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9800177516707933</v>
+        <v>0.9640567383925318</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9827370715466361</v>
+        <v>0.96578871044349</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9124610970139125</v>
+        <v>0.4676746141424608</v>
       </c>
       <c r="G164" t="n">
-        <v>0.3438706619726773</v>
+        <v>0.4682882577895536</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3293927542952089</v>
+        <v>0.4653075813202574</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3214132654428631</v>
+        <v>0.8075788089807977</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2698971331119537</v>
+        <v>0.3618240356445312</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2875832915306091</v>
+        <v>0.3750304281711578</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2482869923114777</v>
+        <v>0.6690378785133362</v>
       </c>
     </row>
     <row r="165">
@@ -6700,31 +6700,31 @@
         <v>55</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9777944497197939</v>
+        <v>0.9546835583659845</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9686952950470257</v>
+        <v>0.9416199424505535</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7410873764382329</v>
+        <v>0.7548791976527219</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3645553600842253</v>
+        <v>0.518681311368537</v>
       </c>
       <c r="H165" t="n">
-        <v>0.4430521265915002</v>
+        <v>0.601176546808622</v>
       </c>
       <c r="I165" t="n">
-        <v>0.5600045800873243</v>
+        <v>0.5640942974057277</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2796253263950348</v>
+        <v>0.374671459197998</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4010421931743622</v>
+        <v>0.4393754303455353</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4611187875270844</v>
+        <v>0.4251430928707123</v>
       </c>
     </row>
     <row r="166">
@@ -6738,31 +6738,31 @@
         <v>60</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9615862147164628</v>
+        <v>0.9633799619543577</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9565426891034574</v>
+        <v>0.9545131833374608</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8375267245937154</v>
+        <v>0.6050670823168429</v>
       </c>
       <c r="G166" t="n">
-        <v>0.4777224915867552</v>
+        <v>0.4697333829071336</v>
       </c>
       <c r="H166" t="n">
-        <v>0.5206395710695507</v>
+        <v>0.5313850960338853</v>
       </c>
       <c r="I166" t="n">
-        <v>0.4431581250495321</v>
+        <v>0.6837844146771043</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3686914145946503</v>
+        <v>0.3894438743591309</v>
       </c>
       <c r="K166" t="n">
-        <v>0.4309694170951843</v>
+        <v>0.47050741314888</v>
       </c>
       <c r="L166" t="n">
-        <v>0.3419422805309296</v>
+        <v>0.6124756932258606</v>
       </c>
     </row>
     <row r="167">
@@ -6776,31 +6776,31 @@
         <v>65</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9821804532638854</v>
+        <v>0.9717678985931327</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9774647470170579</v>
+        <v>0.9848880485769871</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8752344094913231</v>
+        <v>0.8827489774366585</v>
       </c>
       <c r="G167" t="n">
-        <v>0.3248855788294408</v>
+        <v>0.4097591839657768</v>
       </c>
       <c r="H167" t="n">
-        <v>0.3772615347123287</v>
+        <v>0.3075833256567416</v>
       </c>
       <c r="I167" t="n">
-        <v>0.3922136047307846</v>
+        <v>0.3790024900618812</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2358077168464661</v>
+        <v>0.3354023694992065</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2926368415355682</v>
+        <v>0.2531414330005646</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2951717376708984</v>
+        <v>0.2990685701370239</v>
       </c>
     </row>
     <row r="168">
@@ -6814,31 +6814,31 @@
         <v>70</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9733717215082306</v>
+        <v>0.9645650118385122</v>
       </c>
       <c r="E168" t="n">
-        <v>0.98036114523365</v>
+        <v>0.9655040452534638</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8731376688411524</v>
+        <v>0.8756164990944654</v>
       </c>
       <c r="G168" t="n">
-        <v>0.3977436306921197</v>
+        <v>0.4575382094504338</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3479541723609101</v>
+        <v>0.4632630439513221</v>
       </c>
       <c r="I168" t="n">
-        <v>0.3919087677115755</v>
+        <v>0.4040649596609261</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3243265748023987</v>
+        <v>0.3395071923732758</v>
       </c>
       <c r="K168" t="n">
-        <v>0.300397127866745</v>
+        <v>0.3461194038391113</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3063660264015198</v>
+        <v>0.3000669777393341</v>
       </c>
     </row>
     <row r="169">
@@ -6852,31 +6852,31 @@
         <v>75</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9748571263599314</v>
+        <v>0.9502227712677015</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9783005833344554</v>
+        <v>0.9700738172196688</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7385940439399006</v>
+        <v>0.8322797647086295</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3893781216712104</v>
+        <v>0.5438121310724836</v>
       </c>
       <c r="H169" t="n">
-        <v>0.3666119427194547</v>
+        <v>0.4284610758777158</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5818537499043647</v>
+        <v>0.4615351955935577</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2918084859848022</v>
+        <v>0.4591654539108276</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2762329876422882</v>
+        <v>0.3672342896461487</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4459753632545471</v>
+        <v>0.3757230937480927</v>
       </c>
     </row>
     <row r="170">
@@ -6890,31 +6890,31 @@
         <v>80</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9844495384470588</v>
+        <v>0.948729572963269</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9840817705745024</v>
+        <v>0.9665238536654339</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8579704343618877</v>
+        <v>0.7443587526142107</v>
       </c>
       <c r="G170" t="n">
-        <v>0.305801811501587</v>
+        <v>0.5522374052111328</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3145200764717563</v>
+        <v>0.4545311485282546</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4067914362471126</v>
+        <v>0.5793133198930562</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2265134900808334</v>
+        <v>0.4770794212818146</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2596813142299652</v>
+        <v>0.395580917596817</v>
       </c>
       <c r="L170" t="n">
-        <v>0.3100361824035645</v>
+        <v>0.4636557698249817</v>
       </c>
     </row>
   </sheetData>
